--- a/nodes_source_analyses/energy/energy_biomass_gasification_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_biomass_gasification_hydrogen.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23520" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Research data" sheetId="13" r:id="rId3"/>
     <sheet name="Sources" sheetId="15" r:id="rId4"/>
     <sheet name="Notes" sheetId="20" r:id="rId5"/>
-    <sheet name="Exchange_rates" sheetId="21" r:id="rId6"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="depr_cap">Notes!$E$101</definedName>
@@ -42,7 +41,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="174">
   <si>
     <t>Source</t>
   </si>
@@ -214,9 +213,6 @@
   </si>
   <si>
     <t>euro/yr</t>
-  </si>
-  <si>
-    <t>This sheet contains currency exchange rates. These are automatically updated from exchange rate files in the same folder. This only works if you open this `&lt;carrier name&gt;.xlsx` workbook using the `carrier_manager.xlsm` document.</t>
   </si>
   <si>
     <t>Exchange rate</t>
@@ -676,12 +672,19 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -892,16 +895,32 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="13">
@@ -978,7 +997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1184,37 +1203,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1228,742 +1216,738 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="444">
+  <cellStyleXfs count="446">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="444">
+  <cellStyles count="446">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2317,6 +2301,8 @@
     <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2499,8 +2485,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1930400</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2537,8 +2523,8 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
       <xdr:row>232</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -2574,8 +2560,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2611,8 +2597,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -2649,8 +2635,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1625600</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -3244,7 +3230,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3279,7 +3265,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3455,36 +3441,36 @@
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="175"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="162"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="165"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="176"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="165"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="179"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="181"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="168"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -3556,40 +3542,40 @@
     </row>
     <row r="12" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="165" t="s">
-        <v>68</v>
+      <c r="C12" s="151" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="110">
+      <c r="E12" s="109">
         <f>'Research data'!H7</f>
         <v>2.2759974848298982E-2</v>
       </c>
       <c r="F12" s="39"/>
-      <c r="G12" s="125" t="s">
-        <v>115</v>
+      <c r="G12" s="112" t="s">
+        <v>114</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="I12" s="166" t="s">
-        <v>154</v>
+      <c r="I12" s="152" t="s">
+        <v>153</v>
       </c>
       <c r="J12" s="14"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="B13" s="25"/>
-      <c r="C13" s="125" t="s">
-        <v>67</v>
+      <c r="C13" s="112" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="21"/>
-      <c r="E13" s="110">
+      <c r="E13" s="109">
         <f>'Research data'!H8</f>
         <v>1.2899890829273186E-2</v>
       </c>
       <c r="F13" s="39"/>
-      <c r="G13" s="125"/>
+      <c r="G13" s="112"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="166" t="s">
-        <v>154</v>
+      <c r="I13" s="152" t="s">
+        <v>153</v>
       </c>
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
@@ -3597,19 +3583,19 @@
     <row r="14" spans="1:12" ht="16" thickBot="1">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="172" t="s">
-        <v>173</v>
+      <c r="C14" s="158" t="s">
+        <v>172</v>
       </c>
       <c r="D14" s="21"/>
-      <c r="E14" s="110">
+      <c r="E14" s="109">
         <f>'Research data'!H9</f>
         <v>0.96434013432242782</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="125"/>
+      <c r="G14" s="112"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="166" t="s">
-        <v>154</v>
+      <c r="I14" s="152" t="s">
+        <v>153</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
@@ -3617,109 +3603,109 @@
     <row r="15" spans="1:12" ht="16" thickBot="1">
       <c r="A15" s="26"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="125" t="s">
-        <v>66</v>
+      <c r="C15" s="112" t="s">
+        <v>65</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="109">
         <f>'Research data'!H10</f>
         <v>0.46100000000000002</v>
       </c>
       <c r="F15" s="39"/>
-      <c r="G15" s="125" t="s">
+      <c r="G15" s="112" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="32"/>
-      <c r="I15" s="127" t="s">
-        <v>131</v>
+      <c r="I15" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="16" thickBot="1">
-      <c r="A16" s="128"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="125" t="s">
-        <v>76</v>
+      <c r="A16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="112" t="s">
+        <v>75</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="110">
+        <v>74</v>
+      </c>
+      <c r="E16" s="109">
         <f>'Research data'!H11</f>
         <v>215.78522685185183</v>
       </c>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" s="131"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="112"/>
+      <c r="I16" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="118"/>
       <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="16" thickBot="1">
-      <c r="A17" s="128"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="125" t="s">
-        <v>81</v>
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="112" t="s">
+        <v>80</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="132">
+      <c r="E17" s="119">
         <v>0</v>
       </c>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="131"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="118"/>
       <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="16" thickBot="1">
-      <c r="B18" s="129"/>
-      <c r="C18" s="125" t="s">
-        <v>80</v>
+      <c r="B18" s="116"/>
+      <c r="C18" s="112" t="s">
+        <v>79</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="109">
         <f>'Research data'!H12</f>
         <v>0.9</v>
       </c>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="131"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="118"/>
     </row>
     <row r="19" spans="1:11" ht="16" thickBot="1">
-      <c r="B19" s="129"/>
-      <c r="C19" s="172" t="s">
-        <v>153</v>
+      <c r="B19" s="116"/>
+      <c r="C19" s="158" t="s">
+        <v>152</v>
       </c>
       <c r="D19" s="23"/>
-      <c r="E19" s="110">
+      <c r="E19" s="109">
         <f>'Research data'!H13</f>
         <v>7884</v>
       </c>
-      <c r="F19" s="125"/>
-      <c r="G19" s="172" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="131"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="158" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="112"/>
+      <c r="I19" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="118"/>
     </row>
     <row r="20" spans="1:11">
       <c r="B20" s="40"/>
@@ -3761,8 +3747,8 @@
         <v>6</v>
       </c>
       <c r="H22" s="39"/>
-      <c r="I22" s="127" t="s">
-        <v>131</v>
+      <c r="I22" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="J22" s="97"/>
     </row>
@@ -3783,374 +3769,374 @@
         <v>25</v>
       </c>
       <c r="H23" s="39"/>
-      <c r="I23" s="127" t="s">
-        <v>131</v>
+      <c r="I23" s="114" t="s">
+        <v>130</v>
       </c>
       <c r="J23" s="97"/>
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1">
-      <c r="B24" s="159"/>
-      <c r="C24" s="160" t="s">
+      <c r="B24" s="145"/>
+      <c r="C24" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="161" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="110">
+      <c r="E24" s="109">
         <f>'Research data'!H25</f>
         <v>1110.9401439266449</v>
       </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="160" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" s="162"/>
-      <c r="I24" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" s="163"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="146" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="148"/>
+      <c r="I24" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="149"/>
     </row>
     <row r="25" spans="1:11" ht="16" thickBot="1">
-      <c r="A25" s="164"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="168" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="161"/>
-      <c r="E25" s="110">
+      <c r="A25" s="150"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="147"/>
+      <c r="E25" s="109">
         <f>'Research data'!H26</f>
         <v>0</v>
       </c>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168" t="s">
+      <c r="F25" s="154"/>
+      <c r="G25" s="154" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="154"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="150"/>
+    </row>
+    <row r="26" spans="1:11" ht="16" thickBot="1">
+      <c r="A26" s="150"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="154" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="168"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="164"/>
-    </row>
-    <row r="26" spans="1:11" ht="16" thickBot="1">
-      <c r="A26" s="164"/>
-      <c r="B26" s="167"/>
-      <c r="C26" s="168" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="110">
+      <c r="D26" s="147"/>
+      <c r="E26" s="109">
         <f>'Research data'!H27</f>
         <v>0</v>
       </c>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168" t="s">
+      <c r="F26" s="154"/>
+      <c r="G26" s="154" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="154"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="150"/>
+    </row>
+    <row r="27" spans="1:11" ht="16" thickBot="1">
+      <c r="A27" s="150"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="154" t="s">
         <v>160</v>
       </c>
-      <c r="H26" s="168"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="164"/>
-    </row>
-    <row r="27" spans="1:11" ht="16" thickBot="1">
-      <c r="A27" s="164"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="168" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="161"/>
-      <c r="E27" s="110">
+      <c r="D27" s="147"/>
+      <c r="E27" s="109">
         <f>'Research data'!H28</f>
         <v>14164033.788706739</v>
       </c>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168" t="s">
+      <c r="F27" s="154"/>
+      <c r="G27" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="154"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="150"/>
+    </row>
+    <row r="28" spans="1:11" ht="16" thickBot="1">
+      <c r="A28" s="150"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="168"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="164"/>
-    </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1">
-      <c r="A28" s="164"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="168" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="161"/>
-      <c r="E28" s="110">
+      <c r="D28" s="147"/>
+      <c r="E28" s="109">
         <f>'Research data'!H29</f>
         <v>0</v>
       </c>
-      <c r="F28" s="168"/>
-      <c r="G28" s="165" t="s">
-        <v>164</v>
-      </c>
-      <c r="H28" s="168"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="164"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="151" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="154"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="150"/>
     </row>
     <row r="29" spans="1:11" ht="16" thickBot="1">
-      <c r="A29" s="128"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="125" t="s">
+      <c r="A29" s="115"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="E29" s="119">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="132">
-        <v>0.1</v>
-      </c>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125" t="s">
+      <c r="H29" s="112"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="118"/>
+    </row>
+    <row r="30" spans="1:11" ht="16" thickBot="1">
+      <c r="A30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="125"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="131"/>
-    </row>
-    <row r="30" spans="1:11" ht="16" thickBot="1">
-      <c r="A30" s="128"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="125" t="s">
+      <c r="D30" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="132">
+      <c r="E30" s="119">
         <v>1</v>
       </c>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="131"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="118"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="128"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="125"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="112"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="131"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="118"/>
     </row>
     <row r="32" spans="1:11" ht="16" thickBot="1">
-      <c r="A32" s="128"/>
-      <c r="B32" s="129"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="98"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="131"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="118"/>
     </row>
     <row r="33" spans="1:10" ht="16" thickBot="1">
-      <c r="A33" s="128"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="125" t="s">
+      <c r="A33" s="115"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="112" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="132">
+      <c r="E33" s="119">
         <f>'Research data'!H34</f>
         <v>40</v>
       </c>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="125"/>
-      <c r="I33" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="J33" s="131"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="112"/>
+      <c r="I33" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="118"/>
     </row>
     <row r="34" spans="1:10" ht="16" thickBot="1">
-      <c r="A34" s="128"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="125" t="s">
-        <v>93</v>
+      <c r="A34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="112" t="s">
+        <v>92</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="132">
+      <c r="E34" s="119">
         <f>'Research data'!H35</f>
         <v>3</v>
       </c>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="125"/>
-      <c r="I34" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="J34" s="131"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="112"/>
+      <c r="I34" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" s="118"/>
     </row>
     <row r="35" spans="1:10" ht="16" thickBot="1">
-      <c r="A35" s="128"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="125" t="s">
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="153">
+      <c r="E35" s="139">
         <f>'Research data'!H36</f>
         <v>0.20234300000000002</v>
       </c>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="125"/>
-      <c r="I35" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="J35" s="131"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="112"/>
+      <c r="I35" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" s="118"/>
     </row>
     <row r="36" spans="1:10" ht="16" thickBot="1">
-      <c r="A36" s="128"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="125" t="s">
+      <c r="A36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="112" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="132">
+      <c r="E36" s="119">
         <v>0</v>
       </c>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="131"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="118"/>
     </row>
     <row r="37" spans="1:10" ht="16" thickBot="1">
-      <c r="A37" s="128"/>
-      <c r="B37" s="136"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="138"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="125"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="128"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="128"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="128"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="128"/>
-      <c r="B41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="128"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="128"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="128"/>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="128"/>
-      <c r="B45" s="128"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="128"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="128"/>
+      <c r="A46" s="115"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="128"/>
+      <c r="A47" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4272,15 +4258,15 @@
       </c>
       <c r="I4" s="94"/>
       <c r="J4" s="94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="94"/>
       <c r="L4" s="94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M4" s="94"/>
       <c r="N4" s="94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O4" s="94"/>
       <c r="P4" s="94"/>
@@ -4326,19 +4312,19 @@
     </row>
     <row r="7" spans="1:20" ht="16" thickBot="1">
       <c r="B7" s="45"/>
-      <c r="C7" s="126" t="s">
-        <v>68</v>
+      <c r="C7" s="113" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
-      <c r="F7" s="108"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="95"/>
-      <c r="H7" s="109">
+      <c r="H7" s="108">
         <f>J7</f>
         <v>2.2759974848298982E-2</v>
       </c>
       <c r="I7" s="50"/>
-      <c r="J7" s="109">
+      <c r="J7" s="108">
         <f>Notes!E33</f>
         <v>2.2759974848298982E-2</v>
       </c>
@@ -4348,23 +4334,23 @@
       <c r="N7" s="56"/>
       <c r="O7" s="46"/>
       <c r="P7" s="46"/>
-      <c r="Q7" s="124"/>
+      <c r="Q7" s="111"/>
     </row>
     <row r="8" spans="1:20" ht="16" thickBot="1">
       <c r="B8" s="45"/>
-      <c r="C8" s="126" t="s">
-        <v>67</v>
+      <c r="C8" s="113" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
-      <c r="F8" s="108"/>
+      <c r="F8" s="107"/>
       <c r="G8" s="95"/>
-      <c r="H8" s="109">
+      <c r="H8" s="108">
         <f>J8</f>
         <v>1.2899890829273186E-2</v>
       </c>
       <c r="I8" s="50"/>
-      <c r="J8" s="109">
+      <c r="J8" s="108">
         <f>Notes!E34</f>
         <v>1.2899890829273186E-2</v>
       </c>
@@ -4374,23 +4360,23 @@
       <c r="N8" s="56"/>
       <c r="O8" s="46"/>
       <c r="P8" s="46"/>
-      <c r="Q8" s="124"/>
+      <c r="Q8" s="111"/>
     </row>
     <row r="9" spans="1:20" ht="16" thickBot="1">
       <c r="B9" s="45"/>
-      <c r="C9" s="185" t="s">
-        <v>174</v>
+      <c r="C9" s="159" t="s">
+        <v>173</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
-      <c r="F9" s="108"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="95"/>
-      <c r="H9" s="109">
+      <c r="H9" s="108">
         <f>J9</f>
         <v>0.96434013432242782</v>
       </c>
       <c r="I9" s="50"/>
-      <c r="J9" s="109">
+      <c r="J9" s="108">
         <f>Notes!E32</f>
         <v>0.96434013432242782</v>
       </c>
@@ -4400,25 +4386,25 @@
       <c r="N9" s="56"/>
       <c r="O9" s="46"/>
       <c r="P9" s="46"/>
-      <c r="Q9" s="124"/>
+      <c r="Q9" s="111"/>
     </row>
     <row r="10" spans="1:20" ht="16" thickBot="1">
       <c r="B10" s="45"/>
-      <c r="C10" s="126" t="s">
-        <v>66</v>
+      <c r="C10" s="113" t="s">
+        <v>65</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
-      <c r="F10" s="108" t="s">
+      <c r="F10" s="107" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="95"/>
-      <c r="H10" s="109">
+      <c r="H10" s="108">
         <f>J10</f>
         <v>0.46100000000000002</v>
       </c>
       <c r="I10" s="50"/>
-      <c r="J10" s="109">
+      <c r="J10" s="108">
         <f>Notes!E61</f>
         <v>0.46100000000000002</v>
       </c>
@@ -4428,25 +4414,25 @@
       <c r="N10" s="56"/>
       <c r="O10" s="46"/>
       <c r="P10" s="46"/>
-      <c r="Q10" s="124"/>
+      <c r="Q10" s="111"/>
     </row>
     <row r="11" spans="1:20" ht="16" thickBot="1">
       <c r="B11" s="45"/>
-      <c r="C11" s="126" t="s">
-        <v>76</v>
+      <c r="C11" s="113" t="s">
+        <v>75</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
-      <c r="F11" s="140" t="s">
-        <v>75</v>
+      <c r="F11" s="127" t="s">
+        <v>74</v>
       </c>
       <c r="G11" s="95"/>
-      <c r="H11" s="109">
+      <c r="H11" s="108">
         <f>J11</f>
         <v>215.78522685185183</v>
       </c>
       <c r="I11" s="50"/>
-      <c r="J11" s="109">
+      <c r="J11" s="108">
         <f>Notes!E72</f>
         <v>215.78522685185183</v>
       </c>
@@ -4455,13 +4441,13 @@
       <c r="N11" s="56"/>
       <c r="O11" s="46"/>
       <c r="P11" s="46"/>
-      <c r="Q11" s="124"/>
+      <c r="Q11" s="111"/>
     </row>
     <row r="12" spans="1:20" ht="16" thickBot="1">
-      <c r="A12" s="128"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="125" t="s">
-        <v>80</v>
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="112" t="s">
+        <v>79</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -4469,53 +4455,53 @@
         <v>2</v>
       </c>
       <c r="G12" s="95"/>
-      <c r="H12" s="130">
+      <c r="H12" s="117">
         <f>N12</f>
         <v>0.9</v>
       </c>
-      <c r="I12" s="125"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="146">
+      <c r="I12" s="112"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="133">
         <f>Notes!E66</f>
         <v>0.9</v>
       </c>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="128"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
     </row>
     <row r="13" spans="1:20" ht="16" thickBot="1">
-      <c r="A13" s="128"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="125" t="s">
+      <c r="A13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="146">
+      <c r="H13" s="133">
         <f>N13</f>
         <v>7884</v>
       </c>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="146">
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="133">
         <f>Notes!E67</f>
         <v>7884</v>
       </c>
       <c r="Q13" s="58"/>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1">
-      <c r="A14" s="128"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="156" t="s">
-        <v>81</v>
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="142" t="s">
+        <v>80</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -4523,100 +4509,100 @@
         <v>2</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="132">
+      <c r="H14" s="119">
         <v>0</v>
       </c>
-      <c r="I14" s="125"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="128"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
     </row>
     <row r="15" spans="1:20" ht="16" thickBot="1">
-      <c r="A15" s="128"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="156" t="s">
-        <v>82</v>
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="142" t="s">
+        <v>81</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="127">
+      <c r="H15" s="114">
         <v>0.1</v>
       </c>
-      <c r="I15" s="125"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
     </row>
     <row r="16" spans="1:20" ht="16" thickBot="1">
-      <c r="A16" s="128"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="156" t="s">
-        <v>83</v>
+      <c r="A16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="142" t="s">
+        <v>82</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="127">
+      <c r="H16" s="114">
         <v>0.7</v>
       </c>
-      <c r="I16" s="125"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
     </row>
     <row r="17" spans="1:18" ht="16" thickBot="1">
-      <c r="A17" s="128"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="156" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="142" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
       <c r="F17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="130">
+      <c r="H17" s="117">
         <v>65.369349100926101</v>
       </c>
-      <c r="I17" s="125"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
     </row>
     <row r="18" spans="1:18">
       <c r="B18" s="45"/>
       <c r="C18" s="53"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
       <c r="F18" s="48"/>
       <c r="H18" s="56"/>
       <c r="I18" s="50"/>
@@ -4630,22 +4616,22 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="128"/>
-      <c r="B19" s="129"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="34"/>
       <c r="F19" s="34"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="142"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="129"/>
       <c r="P19" s="46"/>
       <c r="Q19" s="57"/>
     </row>
     <row r="20" spans="1:18" ht="16" thickBot="1">
-      <c r="A20" s="128"/>
-      <c r="B20" s="129"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -4655,285 +4641,285 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="142"/>
+      <c r="M20" s="129"/>
       <c r="P20" s="50"/>
-      <c r="Q20" s="124"/>
+      <c r="Q20" s="111"/>
     </row>
     <row r="21" spans="1:18" ht="16" thickBot="1">
-      <c r="A21" s="128"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="145" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="145" t="s">
+      <c r="A21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="132" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="141">
+      <c r="H21" s="128">
         <f>N21</f>
         <v>144005991.80327868</v>
       </c>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="146">
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="133">
         <f>Notes!E142</f>
         <v>144005991.80327868</v>
       </c>
       <c r="P21" s="50"/>
-      <c r="Q21" s="124"/>
+      <c r="Q21" s="111"/>
     </row>
     <row r="22" spans="1:18" ht="16" thickBot="1">
-      <c r="A22" s="128"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="145" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="147" t="s">
+      <c r="A22" s="115"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="141">
+      <c r="H22" s="128">
         <f>N22</f>
         <v>9516558.2877959926</v>
       </c>
-      <c r="J22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="146">
+      <c r="J22" s="129"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="133">
         <f>Notes!E164</f>
         <v>9516558.2877959926</v>
       </c>
-      <c r="Q22" s="150" t="s">
-        <v>120</v>
+      <c r="Q22" s="137" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="16" thickBot="1">
-      <c r="A23" s="128"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="145" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="147" t="s">
+      <c r="A23" s="115"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="157">
+      <c r="H23" s="143">
         <f>N23</f>
         <v>8758652.0947176684</v>
       </c>
-      <c r="J23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="146">
+      <c r="J23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="133">
         <f>Notes!E215</f>
         <v>8758652.0947176684</v>
       </c>
-      <c r="Q23" s="150" t="s">
-        <v>120</v>
+      <c r="Q23" s="137" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="16" thickBot="1">
-      <c r="A24" s="128"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="145" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="140" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="158">
+      <c r="A24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="144">
         <f>N24</f>
         <v>1.4301001459934731E-3</v>
       </c>
-      <c r="J24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="157">
+      <c r="J24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="143">
         <f>Notes!E218</f>
         <v>1.4301001459934731E-3</v>
       </c>
-      <c r="Q24" s="150" t="s">
-        <v>120</v>
+      <c r="Q24" s="137" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="16" thickBot="1">
-      <c r="A25" s="128"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="145" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="140" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="157">
+      <c r="A25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="143">
         <f>Notes!E219</f>
         <v>1110.9401439266449</v>
       </c>
-      <c r="J25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="157">
+      <c r="J25" s="130"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="143">
         <f>Notes!E219</f>
         <v>1110.9401439266449</v>
       </c>
-      <c r="Q25" s="150" t="s">
-        <v>120</v>
+      <c r="Q25" s="137" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="16" thickBot="1">
-      <c r="A26" s="128"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="165" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="165" t="s">
+      <c r="A26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="151" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="146">
+      <c r="H26" s="133">
         <f t="shared" ref="H26:H31" si="0">N26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="146">
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="133">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="171" t="s">
-        <v>168</v>
+      <c r="Q26" s="157" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="16" thickBot="1">
-      <c r="A27" s="128"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="165" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="165" t="s">
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="146">
+      <c r="H27" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="134"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="146">
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="133">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="171" t="s">
-        <v>168</v>
+      <c r="Q27" s="157" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="16" thickBot="1">
-      <c r="A28" s="128"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="165" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="165" t="s">
+      <c r="A28" s="115"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="146">
+      <c r="H28" s="133">
         <f t="shared" si="0"/>
         <v>14164033.788706739</v>
       </c>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="146">
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="133">
         <f>Notes!E131</f>
         <v>14164033.788706739</v>
       </c>
       <c r="Q28" s="58"/>
     </row>
     <row r="29" spans="1:18" ht="16" thickBot="1">
-      <c r="A29" s="128"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="168" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="165" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="146">
+      <c r="A29" s="115"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="154" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="151" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="146">
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="133">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="171" t="s">
-        <v>168</v>
+      <c r="Q29" s="157" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="16" thickBot="1">
-      <c r="A30" s="128"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" s="165" t="s">
+      <c r="A30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="151" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="146">
+      <c r="H30" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="146">
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="133">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="171" t="s">
-        <v>168</v>
+      <c r="Q30" s="157" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="16" thickBot="1">
-      <c r="A31" s="128"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="165" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" s="165" t="s">
+      <c r="A31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="151" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="146">
+      <c r="H31" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="146">
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="133">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="171" t="s">
-        <v>168</v>
+      <c r="Q31" s="157" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4941,8 +4927,8 @@
       <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="1:17" ht="16" thickBot="1">
-      <c r="A33" s="128"/>
-      <c r="B33" s="129"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="34" t="s">
         <v>5</v>
       </c>
@@ -4959,89 +4945,89 @@
       <c r="Q33" s="58"/>
     </row>
     <row r="34" spans="1:17" ht="16" thickBot="1">
-      <c r="A34" s="128"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="144" t="s">
+      <c r="A34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="140" t="s">
+      <c r="F34" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="141">
+      <c r="H34" s="128">
         <f>N34</f>
         <v>40</v>
       </c>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="142"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="146">
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="133">
         <f>Notes!E80</f>
         <v>40</v>
       </c>
       <c r="O34" s="46"/>
       <c r="P34" s="46"/>
-      <c r="Q34" s="150"/>
+      <c r="Q34" s="137"/>
     </row>
     <row r="35" spans="1:17" ht="16" thickBot="1">
-      <c r="A35" s="128"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="126" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="140" t="s">
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="141">
+      <c r="H35" s="128">
         <f t="shared" ref="H35" si="1">N35</f>
         <v>3</v>
       </c>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="146">
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="133">
         <f>Notes!E81</f>
         <v>3</v>
       </c>
       <c r="O35" s="46"/>
       <c r="P35" s="46"/>
-      <c r="Q35" s="150"/>
+      <c r="Q35" s="137"/>
     </row>
     <row r="36" spans="1:17" ht="16" thickBot="1">
-      <c r="A36" s="128"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="139" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="152">
+      <c r="A36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="138">
         <f>N36</f>
         <v>0.20234300000000002</v>
       </c>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="143"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="146">
+      <c r="N36" s="133">
         <f>Notes!E136</f>
         <v>0.20234300000000002</v>
       </c>
       <c r="O36" s="46"/>
       <c r="P36" s="46"/>
-      <c r="Q36" s="150" t="s">
-        <v>120</v>
+      <c r="Q36" s="137" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16" thickBot="1">
-      <c r="A37" s="128"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="107" t="s">
+      <c r="A37" s="115"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="106" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="12"/>
@@ -5050,52 +5036,52 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="16" thickBot="1">
-      <c r="A38" s="128"/>
-      <c r="B38" s="129"/>
-      <c r="C38" s="156" t="s">
+      <c r="A38" s="115"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="142" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="119">
+        <v>442800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="16" thickBot="1">
+      <c r="A39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="H38" s="132">
-        <v>442800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="16" thickBot="1">
-      <c r="A39" s="128"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="156" t="s">
+      <c r="H39" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="16" thickBot="1">
+      <c r="A40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="H39" s="132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="16" thickBot="1">
-      <c r="A40" s="128"/>
-      <c r="B40" s="129"/>
-      <c r="C40" s="156" t="s">
+      <c r="H40" s="119">
+        <v>2835000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="16" thickBot="1">
+      <c r="A41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="H40" s="132">
-        <v>2835000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="16" thickBot="1">
-      <c r="A41" s="128"/>
-      <c r="B41" s="129"/>
-      <c r="C41" s="156" t="s">
+      <c r="H41" s="119">
+        <v>534600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="16" thickBot="1">
+      <c r="A42" s="115"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="132">
-        <v>534600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="16" thickBot="1">
-      <c r="A42" s="128"/>
-      <c r="B42" s="129"/>
-      <c r="C42" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="H42" s="132">
+      <c r="H42" s="119">
         <v>354600</v>
       </c>
     </row>
@@ -5211,14 +5197,14 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="63"/>
-      <c r="C7" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="133" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="133" t="s">
-        <v>63</v>
+      <c r="C7" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>62</v>
       </c>
       <c r="F7" s="59">
         <v>2015</v>
@@ -5226,20 +5212,20 @@
       <c r="G7" s="59">
         <v>2015</v>
       </c>
-      <c r="H7" s="106">
+      <c r="H7" s="105">
         <v>42328</v>
       </c>
       <c r="I7" s="103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="63"/>
-      <c r="C8" s="128" t="s">
-        <v>67</v>
+      <c r="C8" s="115" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
@@ -5251,14 +5237,14 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="63"/>
-      <c r="C9" s="164" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
+      <c r="C9" s="150" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="59"/>
       <c r="G9" s="59"/>
-      <c r="H9" s="106"/>
+      <c r="H9" s="105"/>
       <c r="I9" s="59"/>
     </row>
     <row r="10" spans="2:10">
@@ -5274,23 +5260,23 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="63"/>
-      <c r="E11" s="111"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="59"/>
       <c r="G11" s="59"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="133"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="120"/>
       <c r="J11" s="101"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="63"/>
-      <c r="C12" s="148" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="133" t="s">
-        <v>63</v>
+      <c r="C12" s="135" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="120" t="s">
+        <v>62</v>
       </c>
       <c r="F12" s="59">
         <v>2015</v>
@@ -5298,38 +5284,38 @@
       <c r="G12" s="59">
         <v>2010</v>
       </c>
-      <c r="H12" s="106">
+      <c r="H12" s="105">
         <v>42328</v>
       </c>
-      <c r="I12" s="133" t="s">
-        <v>156</v>
+      <c r="I12" s="120" t="s">
+        <v>155</v>
       </c>
       <c r="J12" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="63"/>
-      <c r="C13" s="128" t="s">
-        <v>112</v>
+      <c r="C13" s="115" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="63"/>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="115" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="63"/>
-      <c r="C15" s="148" t="s">
-        <v>109</v>
+      <c r="C15" s="135" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="63"/>
-      <c r="C16" s="149" t="s">
-        <v>78</v>
+      <c r="C16" s="136" t="s">
+        <v>77</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
@@ -5341,8 +5327,8 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="63"/>
-      <c r="C17" s="148" t="s">
-        <v>126</v>
+      <c r="C17" s="135" t="s">
+        <v>125</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
@@ -5354,8 +5340,8 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="63"/>
-      <c r="C18" s="164" t="s">
-        <v>153</v>
+      <c r="C18" s="150" t="s">
+        <v>152</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -5366,17 +5352,17 @@
       <c r="J18" s="59"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="C19" s="148" t="s">
-        <v>110</v>
+      <c r="C19" s="135" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="C20" s="164" t="s">
-        <v>76</v>
+      <c r="C20" s="150" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5392,10 +5378,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O219"/>
+  <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129:G131"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5407,8 +5393,10 @@
     <col min="5" max="5" width="13.125" style="70" customWidth="1"/>
     <col min="6" max="6" width="6.125" style="70" customWidth="1"/>
     <col min="7" max="13" width="10.625" style="70"/>
-    <col min="14" max="14" width="7.125" style="70" customWidth="1"/>
-    <col min="15" max="16384" width="10.625" style="70"/>
+    <col min="14" max="14" width="16.375" style="70" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="70"/>
+    <col min="16" max="16" width="55.125" style="70" customWidth="1"/>
+    <col min="17" max="16384" width="10.625" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16" thickBot="1"/>
@@ -5434,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="78" t="s">
         <v>26</v>
@@ -5483,7 +5471,7 @@
     <row r="6" spans="1:15">
       <c r="B6" s="76"/>
       <c r="C6" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="77"/>
       <c r="G6" s="77"/>
@@ -5515,7 +5503,7 @@
     <row r="8" spans="1:15">
       <c r="B8" s="76"/>
       <c r="C8" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="77"/>
       <c r="E8" s="77"/>
@@ -5818,10 +5806,10 @@
         <v>249983</v>
       </c>
       <c r="F27" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H27" s="77"/>
       <c r="I27" s="77"/>
@@ -5840,10 +5828,10 @@
         <v>5900</v>
       </c>
       <c r="F28" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" s="77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H28" s="77"/>
       <c r="I28" s="77"/>
@@ -5860,16 +5848,16 @@
         <v>34000</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E29" s="77">
         <v>3344</v>
       </c>
       <c r="F29" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="77"/>
@@ -5930,7 +5918,7 @@
       </c>
       <c r="F32" s="77"/>
       <c r="G32" s="77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
@@ -5950,7 +5938,7 @@
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="77"/>
       <c r="I33" s="77"/>
@@ -5968,7 +5956,7 @@
         <v>1.2899890829273186E-2</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" s="77"/>
       <c r="I34" s="77"/>
@@ -6015,7 +6003,7 @@
       <c r="E37" s="77"/>
       <c r="F37" s="77"/>
       <c r="G37" s="77"/>
-      <c r="H37" s="104"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="77"/>
       <c r="J37" s="77"/>
       <c r="K37" s="77"/>
@@ -6028,9 +6016,9 @@
       <c r="B38" s="76"/>
       <c r="C38" s="77"/>
       <c r="D38" s="77"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
       <c r="J38" s="77"/>
       <c r="K38" s="77"/>
       <c r="L38" s="77"/>
@@ -6044,9 +6032,9 @@
       <c r="D39" s="77"/>
       <c r="E39" s="77"/>
       <c r="F39" s="77"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
       <c r="J39" s="77"/>
       <c r="K39" s="77"/>
       <c r="L39" s="77"/>
@@ -6060,9 +6048,9 @@
       <c r="D40" s="77"/>
       <c r="E40" s="77"/>
       <c r="F40" s="77"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
       <c r="J40" s="77"/>
       <c r="K40" s="77"/>
       <c r="L40" s="77"/>
@@ -6125,7 +6113,7 @@
     <row r="46" spans="2:15">
       <c r="B46" s="76"/>
       <c r="C46" s="77"/>
-      <c r="E46" s="105"/>
+      <c r="E46" s="104"/>
       <c r="F46" s="77"/>
       <c r="K46" s="77"/>
       <c r="L46" s="77"/>
@@ -6147,7 +6135,7 @@
     <row r="48" spans="2:15">
       <c r="B48" s="76"/>
       <c r="C48" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K48" s="77"/>
       <c r="L48" s="77"/>
@@ -6155,10 +6143,10 @@
       <c r="N48" s="77"/>
       <c r="O48" s="77"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:17">
       <c r="B49" s="76"/>
       <c r="C49" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K49" s="77"/>
       <c r="L49" s="77"/>
@@ -6166,10 +6154,10 @@
       <c r="N49" s="77"/>
       <c r="O49" s="77"/>
     </row>
-    <row r="50" spans="2:15" ht="16">
+    <row r="50" spans="2:17" ht="17" thickBot="1">
       <c r="B50" s="76"/>
       <c r="C50" s="77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J50"/>
       <c r="K50" s="77"/>
@@ -6178,66 +6166,115 @@
       <c r="N50" s="77"/>
       <c r="O50" s="77"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:17">
       <c r="B51" s="76"/>
       <c r="C51" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77"/>
-    </row>
-    <row r="52" spans="2:15">
+      <c r="J51" s="170"/>
+      <c r="K51" s="171"/>
+      <c r="L51" s="171"/>
+      <c r="M51" s="171"/>
+      <c r="N51" s="171"/>
+      <c r="O51" s="171"/>
+      <c r="P51" s="171"/>
+      <c r="Q51" s="172"/>
+    </row>
+    <row r="52" spans="2:17" ht="18">
       <c r="B52" s="76"/>
       <c r="C52" s="77"/>
       <c r="D52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-    </row>
-    <row r="53" spans="2:15">
+      <c r="J52" s="173"/>
+      <c r="K52" s="174" t="s">
+        <v>54</v>
+      </c>
+      <c r="L52" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="174" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="O52" s="174" t="s">
+        <v>55</v>
+      </c>
+      <c r="P52" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="175"/>
+    </row>
+    <row r="53" spans="2:17" ht="19" thickBot="1">
       <c r="B53" s="76"/>
       <c r="C53" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-    </row>
-    <row r="54" spans="2:15">
+      <c r="J53" s="176"/>
+      <c r="K53" s="177"/>
+      <c r="L53" s="177"/>
+      <c r="M53" s="177"/>
+      <c r="N53" s="177"/>
+      <c r="O53" s="177"/>
+      <c r="P53" s="177"/>
+      <c r="Q53" s="178"/>
+    </row>
+    <row r="54" spans="2:17" ht="19" thickBot="1">
       <c r="B54" s="76"/>
       <c r="C54" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-    </row>
-    <row r="55" spans="2:15">
+        <v>149</v>
+      </c>
+      <c r="E54" s="185">
+        <f>M54</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="F54" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="J54" s="176"/>
+      <c r="K54" s="169" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="169" t="s">
+        <v>57</v>
+      </c>
+      <c r="M54" s="179">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="N54" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="O54" s="180">
+        <v>42221</v>
+      </c>
+      <c r="P54" s="181" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q54" s="178"/>
+    </row>
+    <row r="55" spans="2:17" ht="16" thickBot="1">
       <c r="B55" s="76"/>
       <c r="C55" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-    </row>
-    <row r="56" spans="2:15">
+        <v>150</v>
+      </c>
+      <c r="J55" s="182"/>
+      <c r="K55" s="183"/>
+      <c r="L55" s="183"/>
+      <c r="M55" s="183"/>
+      <c r="N55" s="183"/>
+      <c r="O55" s="183"/>
+      <c r="P55" s="183"/>
+      <c r="Q55" s="184"/>
+    </row>
+    <row r="56" spans="2:17">
       <c r="B56" s="76"/>
       <c r="C56" s="70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K56" s="77"/>
       <c r="L56" s="77"/>
@@ -6245,26 +6282,16 @@
       <c r="N56" s="77"/>
       <c r="O56" s="77"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:17">
       <c r="B57" s="76"/>
       <c r="D57" s="77"/>
-      <c r="E57" s="70">
-        <f>Exchange_rates!E9</f>
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F57" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" s="70" t="s">
-        <v>134</v>
-      </c>
       <c r="K57" s="77"/>
       <c r="L57" s="77"/>
       <c r="M57" s="77"/>
       <c r="N57" s="77"/>
       <c r="O57" s="77"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:17">
       <c r="B58" s="76"/>
       <c r="K58" s="77"/>
       <c r="L58" s="77"/>
@@ -6272,7 +6299,7 @@
       <c r="N58" s="77"/>
       <c r="O58" s="77"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:17">
       <c r="B59" s="76"/>
       <c r="K59" s="77"/>
       <c r="L59" s="77"/>
@@ -6280,16 +6307,16 @@
       <c r="N59" s="77"/>
       <c r="O59" s="77"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:17">
       <c r="B60" s="76"/>
       <c r="E60" s="70">
         <v>46.1</v>
       </c>
       <c r="F60" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K60" s="77"/>
       <c r="L60" s="77"/>
@@ -6297,14 +6324,14 @@
       <c r="N60" s="77"/>
       <c r="O60" s="77"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:17">
       <c r="B61" s="76"/>
       <c r="E61" s="77">
         <v>0.46100000000000002</v>
       </c>
       <c r="F61" s="77"/>
       <c r="G61" s="77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K61" s="77"/>
       <c r="L61" s="77"/>
@@ -6312,16 +6339,16 @@
       <c r="N61" s="77"/>
       <c r="O61" s="77"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:17">
       <c r="B62" s="76"/>
-      <c r="F62" s="154"/>
+      <c r="F62" s="140"/>
       <c r="K62" s="77"/>
       <c r="L62" s="77"/>
       <c r="M62" s="77"/>
       <c r="N62" s="77"/>
       <c r="O62" s="77"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:17">
       <c r="B63" s="76"/>
       <c r="K63" s="77"/>
       <c r="L63" s="77"/>
@@ -6329,7 +6356,7 @@
       <c r="N63" s="77"/>
       <c r="O63" s="77"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:17">
       <c r="B64" s="76"/>
       <c r="K64" s="77"/>
       <c r="L64" s="77"/>
@@ -6339,14 +6366,14 @@
     </row>
     <row r="65" spans="2:15">
       <c r="B65" s="76"/>
-      <c r="E65" s="155">
+      <c r="E65" s="141">
         <v>90</v>
       </c>
       <c r="F65" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G65" s="70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K65" s="77"/>
       <c r="L65" s="77"/>
@@ -6361,7 +6388,7 @@
         <v>0.9</v>
       </c>
       <c r="G66" s="70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K66" s="77"/>
       <c r="L66" s="77"/>
@@ -6376,10 +6403,10 @@
         <v>7884</v>
       </c>
       <c r="F67" s="70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K67" s="77"/>
       <c r="L67" s="77"/>
@@ -6402,7 +6429,7 @@
         <v>155236</v>
       </c>
       <c r="F69" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K69" s="77"/>
       <c r="L69" s="77"/>
@@ -6418,7 +6445,7 @@
         <v>6468.166666666667</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L70" s="77"/>
       <c r="M70" s="77"/>
@@ -6433,7 +6460,7 @@
         <v>776826.81666666665</v>
       </c>
       <c r="F71" s="70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L71" s="77"/>
       <c r="M71" s="77"/>
@@ -6448,7 +6475,7 @@
         <v>215.78522685185183</v>
       </c>
       <c r="F72" s="70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L72" s="77"/>
       <c r="M72" s="77"/>
@@ -6472,10 +6499,10 @@
         <v>6124502622.5999994</v>
       </c>
       <c r="F74" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G74" s="70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K74" s="77"/>
       <c r="L74" s="77"/>
@@ -6519,10 +6546,10 @@
         <v>40</v>
       </c>
       <c r="F80" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G80" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N80" s="77"/>
       <c r="O80" s="77"/>
@@ -6533,10 +6560,10 @@
         <v>3</v>
       </c>
       <c r="F81" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G81" s="70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N81" s="77"/>
       <c r="O81" s="77"/>
@@ -6612,10 +6639,10 @@
         <v>10</v>
       </c>
       <c r="F95" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G95" s="70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N95" s="77"/>
       <c r="O95" s="77"/>
@@ -6627,7 +6654,7 @@
         <v>0.1</v>
       </c>
       <c r="G96" s="70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N96" s="77"/>
       <c r="O96" s="77"/>
@@ -6788,23 +6815,23 @@
         <v>155521091</v>
       </c>
       <c r="F129" s="70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G129" s="70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="2:7">
       <c r="B130" s="76"/>
       <c r="E130" s="70">
-        <f>E129/E57</f>
+        <f>E129/E54</f>
         <v>141640337.88706738</v>
       </c>
       <c r="F130" s="70" t="s">
         <v>20</v>
       </c>
       <c r="G130" s="70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="2:7">
@@ -6817,7 +6844,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="2:7">
@@ -6835,10 +6862,10 @@
         <v>50</v>
       </c>
       <c r="F135" s="70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G135" s="70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="2:7">
@@ -6848,10 +6875,10 @@
         <v>0.20234300000000002</v>
       </c>
       <c r="F136" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G136" s="70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="2:7">
@@ -6872,23 +6899,23 @@
         <v>158118579</v>
       </c>
       <c r="F141" s="70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G141" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="2:7">
       <c r="B142" s="76"/>
       <c r="E142" s="70">
-        <f>E141/E57</f>
+        <f>E141/E54</f>
         <v>144005991.80327868</v>
       </c>
       <c r="F142" s="70" t="s">
         <v>20</v>
       </c>
       <c r="G142" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="2:7">
@@ -6932,22 +6959,22 @@
         <v>10449181</v>
       </c>
       <c r="F163" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G163" s="70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="5:7">
       <c r="E164" s="70">
-        <f>E163/E57</f>
+        <f>E163/E54</f>
         <v>9516558.2877959926</v>
       </c>
       <c r="F164" s="70" t="s">
         <v>53</v>
       </c>
       <c r="G164" s="70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="189" spans="11:11">
@@ -6965,27 +6992,27 @@
         <v>9617000</v>
       </c>
       <c r="F214" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G214" s="70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="215" spans="5:7">
       <c r="E215" s="70">
-        <f>E214/E57</f>
+        <f>E214/E54</f>
         <v>8758652.0947176684</v>
       </c>
       <c r="F215" s="70" t="s">
         <v>53</v>
       </c>
       <c r="G215" s="70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="216" spans="5:7">
       <c r="G216" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="218" spans="5:7">
@@ -6994,10 +7021,10 @@
         <v>1.4301001459934731E-3</v>
       </c>
       <c r="F218" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G218" s="70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="219" spans="5:7">
@@ -7006,10 +7033,10 @@
         <v>1110.9401439266449</v>
       </c>
       <c r="F219" s="70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G219" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -7022,152 +7049,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="47.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="112"/>
-      <c r="B2" s="173" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="112"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="112"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-    </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="112"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="114"/>
-    </row>
-    <row r="7" spans="1:9" ht="18">
-      <c r="A7" s="115"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="118"/>
-    </row>
-    <row r="8" spans="1:9" ht="19" thickBot="1">
-      <c r="B8" s="25"/>
-      <c r="I8" s="119"/>
-    </row>
-    <row r="9" spans="1:9" ht="19" thickBot="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="121">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F9" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="122">
-        <v>42221</v>
-      </c>
-      <c r="H9" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="119"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_biomass_gasification_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_biomass_gasification_hydrogen.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="175">
   <si>
     <t>Source</t>
   </si>
@@ -494,21 +494,6 @@
     <t>variable operating and maintenance costs per FLH</t>
   </si>
   <si>
-    <r>
-      <t>variable_operation_and_maintenance_costs_per_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flh</t>
-    </r>
-  </si>
-  <si>
     <t>euro/flh</t>
   </si>
   <si>
@@ -593,9 +578,6 @@
     <t>Installation costs</t>
   </si>
   <si>
-    <t>decommisioning_costs</t>
-  </si>
-  <si>
     <t>Decommissioning costs</t>
   </si>
   <si>
@@ -656,6 +638,49 @@
         <scheme val="minor"/>
       </rPr>
       <t>.torrified_biomass_pellets</t>
+    </r>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <r>
+      <t>variable_operation_and_maintenance_costs_per_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>full_load_hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>decommi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sioning_costs</t>
     </r>
   </si>
 </sst>
@@ -672,12 +697,19 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1216,738 +1248,745 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="446">
+  <cellStyleXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="32" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="446">
+  <cellStyles count="448">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2303,6 +2342,8 @@
     <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3265,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3418,8 +3459,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3441,36 +3482,36 @@
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="162"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="165"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="184"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="168"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="187"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -3556,7 +3597,7 @@
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J12" s="14"/>
       <c r="L12" s="35"/>
@@ -3575,7 +3616,7 @@
       <c r="G13" s="112"/>
       <c r="H13" s="32"/>
       <c r="I13" s="152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
@@ -3584,7 +3625,7 @@
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="158" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="109">
@@ -3595,7 +3636,7 @@
       <c r="G14" s="112"/>
       <c r="H14" s="32"/>
       <c r="I14" s="152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
@@ -3627,15 +3668,15 @@
     <row r="16" spans="1:12" ht="16" thickBot="1">
       <c r="A16" s="115"/>
       <c r="B16" s="116"/>
-      <c r="C16" s="112" t="s">
-        <v>75</v>
+      <c r="C16" s="178" t="s">
+        <v>172</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="109">
         <f>'Research data'!H11</f>
-        <v>215.78522685185183</v>
+        <v>468.08075239013408</v>
       </c>
       <c r="F16" s="112"/>
       <c r="G16" s="112" t="s">
@@ -3690,7 +3731,7 @@
     <row r="19" spans="1:11" ht="16" thickBot="1">
       <c r="B19" s="116"/>
       <c r="C19" s="158" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="109">
@@ -3699,7 +3740,7 @@
       </c>
       <c r="F19" s="112"/>
       <c r="G19" s="158" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H19" s="112"/>
       <c r="I19" s="114" t="s">
@@ -3776,11 +3817,11 @@
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1">
       <c r="B24" s="145"/>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="188" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="147" t="s">
         <v>139</v>
-      </c>
-      <c r="D24" s="147" t="s">
-        <v>140</v>
       </c>
       <c r="E24" s="109">
         <f>'Research data'!H25</f>
@@ -3788,7 +3829,7 @@
       </c>
       <c r="F24" s="148"/>
       <c r="G24" s="146" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H24" s="148"/>
       <c r="I24" s="114" t="s">
@@ -3800,7 +3841,7 @@
       <c r="A25" s="150"/>
       <c r="B25" s="153"/>
       <c r="C25" s="154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" s="147"/>
       <c r="E25" s="109">
@@ -3809,7 +3850,7 @@
       </c>
       <c r="F25" s="154"/>
       <c r="G25" s="154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H25" s="154"/>
       <c r="I25" s="155"/>
@@ -3820,7 +3861,7 @@
       <c r="A26" s="150"/>
       <c r="B26" s="153"/>
       <c r="C26" s="154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D26" s="147"/>
       <c r="E26" s="109">
@@ -3829,7 +3870,7 @@
       </c>
       <c r="F26" s="154"/>
       <c r="G26" s="154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H26" s="154"/>
       <c r="I26" s="155"/>
@@ -3839,8 +3880,8 @@
     <row r="27" spans="1:11" ht="16" thickBot="1">
       <c r="A27" s="150"/>
       <c r="B27" s="153"/>
-      <c r="C27" s="154" t="s">
-        <v>160</v>
+      <c r="C27" s="188" t="s">
+        <v>174</v>
       </c>
       <c r="D27" s="147"/>
       <c r="E27" s="109">
@@ -3849,10 +3890,12 @@
       </c>
       <c r="F27" s="154"/>
       <c r="G27" s="154" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H27" s="154"/>
-      <c r="I27" s="155"/>
+      <c r="I27" s="114" t="s">
+        <v>130</v>
+      </c>
       <c r="J27" s="156"/>
       <c r="K27" s="150"/>
     </row>
@@ -3860,7 +3903,7 @@
       <c r="A28" s="150"/>
       <c r="B28" s="153"/>
       <c r="C28" s="154" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="147"/>
       <c r="E28" s="109">
@@ -3869,7 +3912,7 @@
       </c>
       <c r="F28" s="154"/>
       <c r="G28" s="151" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H28" s="154"/>
       <c r="I28" s="155"/>
@@ -4192,7 +4235,7 @@
   <dimension ref="A2:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4365,7 +4408,7 @@
     <row r="9" spans="1:20" ht="16" thickBot="1">
       <c r="B9" s="45"/>
       <c r="C9" s="159" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
@@ -4418,8 +4461,8 @@
     </row>
     <row r="11" spans="1:20" ht="16" thickBot="1">
       <c r="B11" s="45"/>
-      <c r="C11" s="113" t="s">
-        <v>75</v>
+      <c r="C11" s="177" t="s">
+        <v>172</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -4429,12 +4472,12 @@
       <c r="G11" s="95"/>
       <c r="H11" s="108">
         <f>J11</f>
-        <v>215.78522685185183</v>
+        <v>468.08075239013408</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="108">
-        <f>Notes!E72</f>
-        <v>215.78522685185183</v>
+        <f>Notes!E73</f>
+        <v>468.08075239013408</v>
       </c>
       <c r="K11" s="50"/>
       <c r="M11" s="50"/>
@@ -4772,7 +4815,7 @@
       <c r="A26" s="115"/>
       <c r="B26" s="116"/>
       <c r="C26" s="151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="151" t="s">
         <v>20</v>
@@ -4791,14 +4834,14 @@
         <v>0</v>
       </c>
       <c r="Q26" s="157" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="16" thickBot="1">
       <c r="A27" s="115"/>
       <c r="B27" s="116"/>
       <c r="C27" s="151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F27" s="151" t="s">
         <v>20</v>
@@ -4817,14 +4860,14 @@
         <v>0</v>
       </c>
       <c r="Q27" s="157" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="16" thickBot="1">
       <c r="A28" s="115"/>
       <c r="B28" s="116"/>
       <c r="C28" s="151" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F28" s="151" t="s">
         <v>20</v>
@@ -4848,10 +4891,10 @@
       <c r="A29" s="115"/>
       <c r="B29" s="116"/>
       <c r="C29" s="154" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F29" s="151" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H29" s="133">
         <f t="shared" si="0"/>
@@ -4867,14 +4910,14 @@
         <v>0</v>
       </c>
       <c r="Q29" s="157" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="16" thickBot="1">
       <c r="A30" s="115"/>
       <c r="B30" s="116"/>
       <c r="C30" s="151" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F30" s="151" t="s">
         <v>53</v>
@@ -4893,14 +4936,14 @@
         <v>0</v>
       </c>
       <c r="Q30" s="157" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="16" thickBot="1">
       <c r="A31" s="115"/>
       <c r="B31" s="116"/>
       <c r="C31" s="151" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F31" s="151" t="s">
         <v>53</v>
@@ -4919,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="157" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -5238,7 +5281,7 @@
     <row r="9" spans="2:10">
       <c r="B9" s="63"/>
       <c r="C9" s="150" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="110"/>
       <c r="E9" s="110"/>
@@ -5288,7 +5331,7 @@
         <v>42328</v>
       </c>
       <c r="I12" s="120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J12" s="59" t="s">
         <v>117</v>
@@ -5341,7 +5384,7 @@
     <row r="18" spans="2:10">
       <c r="B18" s="63"/>
       <c r="C18" s="150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -5362,7 +5405,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5380,8 +5423,8 @@
   </sheetPr>
   <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5809,7 +5852,7 @@
         <v>70</v>
       </c>
       <c r="G27" s="77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H27" s="77"/>
       <c r="I27" s="77"/>
@@ -5831,7 +5874,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="77"/>
       <c r="I28" s="77"/>
@@ -5848,7 +5891,7 @@
         <v>34000</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E29" s="77">
         <v>3344</v>
@@ -5918,7 +5961,7 @@
       </c>
       <c r="F32" s="77"/>
       <c r="G32" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
@@ -6169,42 +6212,42 @@
     <row r="51" spans="2:17">
       <c r="B51" s="76"/>
       <c r="C51" s="77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="77"/>
-      <c r="J51" s="170"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="171"/>
-      <c r="M51" s="171"/>
-      <c r="N51" s="171"/>
-      <c r="O51" s="171"/>
-      <c r="P51" s="171"/>
-      <c r="Q51" s="172"/>
+      <c r="J51" s="161"/>
+      <c r="K51" s="162"/>
+      <c r="L51" s="162"/>
+      <c r="M51" s="162"/>
+      <c r="N51" s="162"/>
+      <c r="O51" s="162"/>
+      <c r="P51" s="162"/>
+      <c r="Q51" s="163"/>
     </row>
     <row r="52" spans="2:17" ht="18">
       <c r="B52" s="76"/>
       <c r="C52" s="77"/>
       <c r="D52" s="77"/>
-      <c r="J52" s="173"/>
-      <c r="K52" s="174" t="s">
+      <c r="J52" s="164"/>
+      <c r="K52" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="L52" s="174" t="s">
+      <c r="L52" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="174" t="s">
+      <c r="M52" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="174" t="s">
+      <c r="N52" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="O52" s="174" t="s">
+      <c r="O52" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="P52" s="174" t="s">
+      <c r="P52" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="Q52" s="175"/>
+      <c r="Q52" s="166"/>
     </row>
     <row r="53" spans="2:17" ht="19" thickBot="1">
       <c r="B53" s="76"/>
@@ -6212,21 +6255,21 @@
         <v>122</v>
       </c>
       <c r="D53" s="77"/>
-      <c r="J53" s="176"/>
-      <c r="K53" s="177"/>
-      <c r="L53" s="177"/>
-      <c r="M53" s="177"/>
-      <c r="N53" s="177"/>
-      <c r="O53" s="177"/>
-      <c r="P53" s="177"/>
-      <c r="Q53" s="178"/>
+      <c r="J53" s="167"/>
+      <c r="K53" s="168"/>
+      <c r="L53" s="168"/>
+      <c r="M53" s="168"/>
+      <c r="N53" s="168"/>
+      <c r="O53" s="168"/>
+      <c r="P53" s="168"/>
+      <c r="Q53" s="169"/>
     </row>
     <row r="54" spans="2:17" ht="19" thickBot="1">
       <c r="B54" s="76"/>
       <c r="C54" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="185">
+        <v>148</v>
+      </c>
+      <c r="E54" s="176">
         <f>M54</f>
         <v>1.0980000000000001</v>
       </c>
@@ -6236,40 +6279,40 @@
       <c r="G54" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="J54" s="176"/>
-      <c r="K54" s="169" t="s">
+      <c r="J54" s="167"/>
+      <c r="K54" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="L54" s="169" t="s">
+      <c r="L54" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="M54" s="179">
+      <c r="M54" s="170">
         <v>1.0980000000000001</v>
       </c>
-      <c r="N54" s="169" t="s">
+      <c r="N54" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="O54" s="180">
+      <c r="O54" s="171">
         <v>42221</v>
       </c>
-      <c r="P54" s="181" t="s">
+      <c r="P54" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="Q54" s="178"/>
+      <c r="Q54" s="169"/>
     </row>
     <row r="55" spans="2:17" ht="16" thickBot="1">
       <c r="B55" s="76"/>
       <c r="C55" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="J55" s="182"/>
-      <c r="K55" s="183"/>
-      <c r="L55" s="183"/>
-      <c r="M55" s="183"/>
-      <c r="N55" s="183"/>
-      <c r="O55" s="183"/>
-      <c r="P55" s="183"/>
-      <c r="Q55" s="184"/>
+        <v>149</v>
+      </c>
+      <c r="J55" s="173"/>
+      <c r="K55" s="174"/>
+      <c r="L55" s="174"/>
+      <c r="M55" s="174"/>
+      <c r="N55" s="174"/>
+      <c r="O55" s="174"/>
+      <c r="P55" s="174"/>
+      <c r="Q55" s="175"/>
     </row>
     <row r="56" spans="2:17">
       <c r="B56" s="76"/>
@@ -6316,7 +6359,7 @@
         <v>86</v>
       </c>
       <c r="G60" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K60" s="77"/>
       <c r="L60" s="77"/>
@@ -6406,7 +6449,7 @@
         <v>106</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K67" s="77"/>
       <c r="L67" s="77"/>
@@ -6445,7 +6488,7 @@
         <v>6468.166666666667</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L70" s="77"/>
       <c r="M70" s="77"/>
@@ -6477,6 +6520,9 @@
       <c r="F72" s="70" t="s">
         <v>74</v>
       </c>
+      <c r="G72" s="70" t="s">
+        <v>75</v>
+      </c>
       <c r="L72" s="77"/>
       <c r="M72" s="77"/>
       <c r="N72" s="77"/>
@@ -6485,6 +6531,16 @@
     <row r="73" spans="2:15">
       <c r="B73" s="76"/>
       <c r="C73" s="77"/>
+      <c r="E73" s="70">
+        <f>E72/E61</f>
+        <v>468.08075239013408</v>
+      </c>
+      <c r="F73" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" s="70" t="s">
+        <v>172</v>
+      </c>
       <c r="K73" s="77"/>
       <c r="L73" s="77"/>
       <c r="M73" s="77"/>
@@ -6494,16 +6550,6 @@
     <row r="74" spans="2:15">
       <c r="B74" s="76"/>
       <c r="C74" s="77"/>
-      <c r="E74" s="70">
-        <f>E71*E67</f>
-        <v>6124502622.5999994</v>
-      </c>
-      <c r="F74" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="G74" s="70" t="s">
-        <v>132</v>
-      </c>
       <c r="K74" s="77"/>
       <c r="L74" s="77"/>
       <c r="M74" s="77"/>
@@ -6520,6 +6566,16 @@
     </row>
     <row r="76" spans="2:15">
       <c r="B76" s="76"/>
+      <c r="E76" s="70">
+        <f>E71*E67</f>
+        <v>6124502622.5999994</v>
+      </c>
+      <c r="F76" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G76" s="70" t="s">
+        <v>132</v>
+      </c>
       <c r="L76" s="77"/>
       <c r="M76" s="77"/>
       <c r="N76" s="77"/>
@@ -6642,7 +6698,7 @@
         <v>86</v>
       </c>
       <c r="G95" s="70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N95" s="77"/>
       <c r="O95" s="77"/>
@@ -6654,7 +6710,7 @@
         <v>0.1</v>
       </c>
       <c r="G96" s="70" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N96" s="77"/>
       <c r="O96" s="77"/>
@@ -6818,7 +6874,7 @@
         <v>127</v>
       </c>
       <c r="G129" s="70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="2:7">
@@ -6831,7 +6887,7 @@
         <v>20</v>
       </c>
       <c r="G130" s="70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="2:7">
@@ -6844,7 +6900,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="2:7">
@@ -7017,7 +7073,7 @@
     </row>
     <row r="218" spans="5:7">
       <c r="E218" s="70">
-        <f>E215/E74</f>
+        <f>E215/E76</f>
         <v>1.4301001459934731E-3</v>
       </c>
       <c r="F218" s="70" t="s">

--- a/nodes_source_analyses/energy/energy_biomass_gasification_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_biomass_gasification_hydrogen.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -41,8 +46,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -697,7 +705,7 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -892,11 +900,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1527,7 +1530,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1701,7 +1704,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1765,7 +1768,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1802,20 +1805,20 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1835,12 +1838,12 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1910,8 +1913,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1936,55 +1939,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="32" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="448">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2446,77 +2428,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2710,7 +2622,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2823,7 +2735,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -2850,15 +2762,15 @@
       <sheetName val="Title - blank"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9">
         <row r="48">
           <cell r="H48">
@@ -2866,25 +2778,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3275,32 +3187,32 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3309,7 +3221,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -3318,7 +3230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3327,29 +3239,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="79" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="80"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="81"/>
       <c r="C10" s="82"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="81" t="s">
         <v>28</v>
@@ -3358,33 +3270,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="81"/>
       <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="81"/>
       <c r="C13" s="84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="81" t="s">
         <v>33</v>
@@ -3393,49 +3305,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="81"/>
       <c r="C17" s="86" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="81"/>
       <c r="C18" s="87" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="81"/>
       <c r="C19" s="88" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="89"/>
       <c r="C20" s="90" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="89"/>
       <c r="C21" s="91" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="89"/>
       <c r="C22" s="92" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="89"/>
       <c r="C23" s="93" t="s">
         <v>41</v>
@@ -3444,88 +3356,83 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="B2" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
     <col min="3" max="3" width="36" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="34" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="179" t="s">
+    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
       <c r="E2" s="181"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="182"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="185"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="180"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="180"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1">
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3536,7 +3443,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="26" customFormat="1">
+    <row r="9" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3557,7 +3464,7 @@
       </c>
       <c r="J9" s="96"/>
     </row>
-    <row r="10" spans="1:12" s="26" customFormat="1">
+    <row r="10" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3568,7 +3475,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>45</v>
@@ -3581,7 +3488,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="151" t="s">
         <v>67</v>
@@ -3602,7 +3509,7 @@
       <c r="J12" s="14"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="13" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="112" t="s">
         <v>66</v>
@@ -3621,7 +3528,7 @@
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="16" thickBot="1">
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="158" t="s">
@@ -3641,7 +3548,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="16" thickBot="1">
+    <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="25"/>
       <c r="C15" s="112" t="s">
@@ -3665,7 +3572,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:12" ht="16" thickBot="1">
+    <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="115"/>
       <c r="B16" s="116"/>
       <c r="C16" s="178" t="s">
@@ -3689,7 +3596,7 @@
       <c r="J16" s="118"/>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" spans="1:11" ht="16" thickBot="1">
+    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="115"/>
       <c r="B17" s="116"/>
       <c r="C17" s="112" t="s">
@@ -3708,7 +3615,7 @@
       <c r="J17" s="118"/>
       <c r="K17" s="36"/>
     </row>
-    <row r="18" spans="1:11" ht="16" thickBot="1">
+    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="116"/>
       <c r="C18" s="112" t="s">
         <v>79</v>
@@ -3728,7 +3635,7 @@
       </c>
       <c r="J18" s="118"/>
     </row>
-    <row r="19" spans="1:11" ht="16" thickBot="1">
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="116"/>
       <c r="C19" s="158" t="s">
         <v>151</v>
@@ -3748,7 +3655,7 @@
       </c>
       <c r="J19" s="118"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="40"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
@@ -3758,7 +3665,7 @@
       <c r="I20" s="36"/>
       <c r="J20" s="97"/>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1">
+    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="13" t="s">
         <v>44</v>
@@ -3771,7 +3678,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="97"/>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1">
+    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="39" t="s">
         <v>22</v>
@@ -3793,7 +3700,7 @@
       </c>
       <c r="J22" s="97"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="40"/>
       <c r="C23" s="39" t="s">
         <v>23</v>
@@ -3815,9 +3722,9 @@
       </c>
       <c r="J23" s="97"/>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1">
+    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="145"/>
-      <c r="C24" s="188" t="s">
+      <c r="C24" s="179" t="s">
         <v>173</v>
       </c>
       <c r="D24" s="147" t="s">
@@ -3837,7 +3744,7 @@
       </c>
       <c r="J24" s="149"/>
     </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1">
+    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="150"/>
       <c r="B25" s="153"/>
       <c r="C25" s="154" t="s">
@@ -3857,7 +3764,7 @@
       <c r="J25" s="156"/>
       <c r="K25" s="150"/>
     </row>
-    <row r="26" spans="1:11" ht="16" thickBot="1">
+    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="150"/>
       <c r="B26" s="153"/>
       <c r="C26" s="154" t="s">
@@ -3877,10 +3784,10 @@
       <c r="J26" s="156"/>
       <c r="K26" s="150"/>
     </row>
-    <row r="27" spans="1:11" ht="16" thickBot="1">
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="150"/>
       <c r="B27" s="153"/>
-      <c r="C27" s="188" t="s">
+      <c r="C27" s="179" t="s">
         <v>174</v>
       </c>
       <c r="D27" s="147"/>
@@ -3899,7 +3806,7 @@
       <c r="J27" s="156"/>
       <c r="K27" s="150"/>
     </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1">
+    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="150"/>
       <c r="B28" s="153"/>
       <c r="C28" s="154" t="s">
@@ -3919,7 +3826,7 @@
       <c r="J28" s="156"/>
       <c r="K28" s="150"/>
     </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1">
+    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="115"/>
       <c r="B29" s="116"/>
       <c r="C29" s="112" t="s">
@@ -3939,7 +3846,7 @@
       <c r="I29" s="114"/>
       <c r="J29" s="118"/>
     </row>
-    <row r="30" spans="1:11" ht="16" thickBot="1">
+    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="115"/>
       <c r="B30" s="116"/>
       <c r="C30" s="112" t="s">
@@ -3957,7 +3864,7 @@
       <c r="I30" s="114"/>
       <c r="J30" s="118"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="115"/>
       <c r="B31" s="116"/>
       <c r="C31" s="112"/>
@@ -3969,7 +3876,7 @@
       <c r="I31" s="120"/>
       <c r="J31" s="118"/>
     </row>
-    <row r="32" spans="1:11" ht="16" thickBot="1">
+    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="115"/>
       <c r="B32" s="116"/>
       <c r="C32" s="13" t="s">
@@ -3982,7 +3889,7 @@
       <c r="I32" s="120"/>
       <c r="J32" s="118"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
       <c r="B33" s="116"/>
       <c r="C33" s="112" t="s">
@@ -4005,7 +3912,7 @@
       </c>
       <c r="J33" s="118"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="115"/>
       <c r="B34" s="116"/>
       <c r="C34" s="112" t="s">
@@ -4028,7 +3935,7 @@
       </c>
       <c r="J34" s="118"/>
     </row>
-    <row r="35" spans="1:10" ht="16" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="115"/>
       <c r="B35" s="116"/>
       <c r="C35" s="112" t="s">
@@ -4051,7 +3958,7 @@
       </c>
       <c r="J35" s="118"/>
     </row>
-    <row r="36" spans="1:10" ht="16" thickBot="1">
+    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
       <c r="B36" s="116"/>
       <c r="C36" s="112" t="s">
@@ -4069,7 +3976,7 @@
       <c r="I36" s="114"/>
       <c r="J36" s="118"/>
     </row>
-    <row r="37" spans="1:10" ht="16" thickBot="1">
+    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="115"/>
       <c r="B37" s="123"/>
       <c r="C37" s="124"/>
@@ -4081,7 +3988,7 @@
       <c r="I37" s="124"/>
       <c r="J37" s="125"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="115"/>
       <c r="B38" s="115"/>
       <c r="C38" s="115"/>
@@ -4093,7 +4000,7 @@
       <c r="I38" s="115"/>
       <c r="J38" s="115"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="115"/>
       <c r="B39" s="115"/>
       <c r="C39" s="115"/>
@@ -4105,7 +4012,7 @@
       <c r="I39" s="115"/>
       <c r="J39" s="115"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="115"/>
       <c r="B40" s="115"/>
       <c r="C40" s="115"/>
@@ -4117,7 +4024,7 @@
       <c r="I40" s="115"/>
       <c r="J40" s="115"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="115"/>
       <c r="B41" s="115"/>
       <c r="E41" s="115"/>
@@ -4127,7 +4034,7 @@
       <c r="I41" s="115"/>
       <c r="J41" s="115"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="115"/>
       <c r="B42" s="115"/>
       <c r="C42" s="115"/>
@@ -4139,7 +4046,7 @@
       <c r="I42" s="115"/>
       <c r="J42" s="115"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
@@ -4151,7 +4058,7 @@
       <c r="I43" s="115"/>
       <c r="J43" s="115"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="115"/>
       <c r="B44" s="115"/>
       <c r="C44" s="115"/>
@@ -4163,7 +4070,7 @@
       <c r="I44" s="115"/>
       <c r="J44" s="115"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="115"/>
       <c r="B45" s="115"/>
       <c r="C45" s="115"/>
@@ -4175,55 +4082,18 @@
       <c r="I45" s="115"/>
       <c r="J45" s="115"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="115"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4238,33 +4108,33 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="9.125" style="42" customWidth="1"/>
-    <col min="17" max="17" width="23.375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="42" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="42" customWidth="1"/>
     <col min="18" max="18" width="11" style="42" customWidth="1"/>
-    <col min="19" max="19" width="2.5" style="42" customWidth="1"/>
-    <col min="20" max="20" width="22.375" style="42" customWidth="1"/>
-    <col min="21" max="16384" width="10.625" style="42"/>
+    <col min="19" max="19" width="2.42578125" style="42" customWidth="1"/>
+    <col min="20" max="20" width="22.42578125" style="42" customWidth="1"/>
+    <col min="21" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="16" thickBot="1"/>
-    <row r="3" spans="1:20">
+    <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4285,7 +4155,7 @@
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:20" s="26" customFormat="1">
+    <row r="4" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="94" t="s">
         <v>19</v>
@@ -4317,7 +4187,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18" customHeight="1">
+    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
@@ -4333,7 +4203,7 @@
       <c r="N5" s="51"/>
       <c r="Q5" s="57"/>
     </row>
-    <row r="6" spans="1:20" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>45</v>
@@ -4353,7 +4223,7 @@
       <c r="P6" s="46"/>
       <c r="Q6" s="55"/>
     </row>
-    <row r="7" spans="1:20" ht="16" thickBot="1">
+    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="113" t="s">
         <v>67</v>
@@ -4379,7 +4249,7 @@
       <c r="P7" s="46"/>
       <c r="Q7" s="111"/>
     </row>
-    <row r="8" spans="1:20" ht="16" thickBot="1">
+    <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="113" t="s">
         <v>66</v>
@@ -4405,7 +4275,7 @@
       <c r="P8" s="46"/>
       <c r="Q8" s="111"/>
     </row>
-    <row r="9" spans="1:20" ht="16" thickBot="1">
+    <row r="9" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="159" t="s">
         <v>171</v>
@@ -4431,7 +4301,7 @@
       <c r="P9" s="46"/>
       <c r="Q9" s="111"/>
     </row>
-    <row r="10" spans="1:20" ht="16" thickBot="1">
+    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="113" t="s">
         <v>65</v>
@@ -4459,7 +4329,7 @@
       <c r="P10" s="46"/>
       <c r="Q10" s="111"/>
     </row>
-    <row r="11" spans="1:20" ht="16" thickBot="1">
+    <row r="11" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="45"/>
       <c r="C11" s="177" t="s">
         <v>172</v>
@@ -4486,7 +4356,7 @@
       <c r="P11" s="46"/>
       <c r="Q11" s="111"/>
     </row>
-    <row r="12" spans="1:20" ht="16" thickBot="1">
+    <row r="12" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="115"/>
       <c r="B12" s="116"/>
       <c r="C12" s="112" t="s">
@@ -4516,7 +4386,7 @@
       <c r="Q12" s="115"/>
       <c r="R12" s="115"/>
     </row>
-    <row r="13" spans="1:20" ht="16" thickBot="1">
+    <row r="13" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="115"/>
       <c r="B13" s="116"/>
       <c r="C13" s="112" t="s">
@@ -4540,7 +4410,7 @@
       </c>
       <c r="Q13" s="58"/>
     </row>
-    <row r="14" spans="1:20" ht="16" thickBot="1">
+    <row r="14" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="115"/>
       <c r="B14" s="116"/>
       <c r="C14" s="142" t="s">
@@ -4566,7 +4436,7 @@
       <c r="Q14" s="115"/>
       <c r="R14" s="115"/>
     </row>
-    <row r="15" spans="1:20" ht="16" thickBot="1">
+    <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="115"/>
       <c r="B15" s="116"/>
       <c r="C15" s="142" t="s">
@@ -4591,7 +4461,7 @@
       <c r="Q15" s="115"/>
       <c r="R15" s="115"/>
     </row>
-    <row r="16" spans="1:20" ht="16" thickBot="1">
+    <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="115"/>
       <c r="B16" s="116"/>
       <c r="C16" s="142" t="s">
@@ -4616,7 +4486,7 @@
       <c r="Q16" s="115"/>
       <c r="R16" s="115"/>
     </row>
-    <row r="17" spans="1:18" ht="16" thickBot="1">
+    <row r="17" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="115"/>
       <c r="B17" s="116"/>
       <c r="C17" s="142" t="s">
@@ -4641,7 +4511,7 @@
       <c r="Q17" s="115"/>
       <c r="R17" s="115"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="45"/>
       <c r="C18" s="53"/>
       <c r="D18" s="113"/>
@@ -4658,7 +4528,7 @@
       <c r="P18" s="46"/>
       <c r="Q18" s="58"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="115"/>
       <c r="B19" s="116"/>
       <c r="C19" s="34"/>
@@ -4672,7 +4542,7 @@
       <c r="P19" s="46"/>
       <c r="Q19" s="57"/>
     </row>
-    <row r="20" spans="1:18" ht="16" thickBot="1">
+    <row r="20" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="115"/>
       <c r="B20" s="116"/>
       <c r="C20" s="12" t="s">
@@ -4688,7 +4558,7 @@
       <c r="P20" s="50"/>
       <c r="Q20" s="111"/>
     </row>
-    <row r="21" spans="1:18" ht="16" thickBot="1">
+    <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="115"/>
       <c r="B21" s="116"/>
       <c r="C21" s="132" t="s">
@@ -4715,7 +4585,7 @@
       <c r="P21" s="50"/>
       <c r="Q21" s="111"/>
     </row>
-    <row r="22" spans="1:18" ht="16" thickBot="1">
+    <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="115"/>
       <c r="B22" s="116"/>
       <c r="C22" s="132" t="s">
@@ -4739,7 +4609,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="16" thickBot="1">
+    <row r="23" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="115"/>
       <c r="B23" s="116"/>
       <c r="C23" s="132" t="s">
@@ -4763,7 +4633,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16" thickBot="1">
+    <row r="24" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="115"/>
       <c r="B24" s="116"/>
       <c r="C24" s="132" t="s">
@@ -4787,7 +4657,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="16" thickBot="1">
+    <row r="25" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="115"/>
       <c r="B25" s="116"/>
       <c r="C25" s="132" t="s">
@@ -4811,7 +4681,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="16" thickBot="1">
+    <row r="26" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="115"/>
       <c r="B26" s="116"/>
       <c r="C26" s="151" t="s">
@@ -4837,7 +4707,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="16" thickBot="1">
+    <row r="27" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="115"/>
       <c r="B27" s="116"/>
       <c r="C27" s="151" t="s">
@@ -4863,7 +4733,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="16" thickBot="1">
+    <row r="28" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="115"/>
       <c r="B28" s="116"/>
       <c r="C28" s="151" t="s">
@@ -4887,7 +4757,7 @@
       </c>
       <c r="Q28" s="58"/>
     </row>
-    <row r="29" spans="1:18" ht="16" thickBot="1">
+    <row r="29" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="115"/>
       <c r="B29" s="116"/>
       <c r="C29" s="154" t="s">
@@ -4913,7 +4783,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="16" thickBot="1">
+    <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="115"/>
       <c r="B30" s="116"/>
       <c r="C30" s="151" t="s">
@@ -4939,7 +4809,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="16" thickBot="1">
+    <row r="31" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="115"/>
       <c r="B31" s="116"/>
       <c r="C31" s="151" t="s">
@@ -4965,11 +4835,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B32" s="45"/>
       <c r="Q32" s="49"/>
     </row>
-    <row r="33" spans="1:17" ht="16" thickBot="1">
+    <row r="33" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
       <c r="B33" s="116"/>
       <c r="C33" s="34" t="s">
@@ -4987,7 +4857,7 @@
       <c r="P33" s="46"/>
       <c r="Q33" s="58"/>
     </row>
-    <row r="34" spans="1:17" ht="16" thickBot="1">
+    <row r="34" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="115"/>
       <c r="B34" s="116"/>
       <c r="C34" s="131" t="s">
@@ -5013,7 +4883,7 @@
       <c r="P34" s="46"/>
       <c r="Q34" s="137"/>
     </row>
-    <row r="35" spans="1:17" ht="16" thickBot="1">
+    <row r="35" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="115"/>
       <c r="B35" s="116"/>
       <c r="C35" s="113" t="s">
@@ -5039,7 +4909,7 @@
       <c r="P35" s="46"/>
       <c r="Q35" s="137"/>
     </row>
-    <row r="36" spans="1:17" ht="16" thickBot="1">
+    <row r="36" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
       <c r="B36" s="116"/>
       <c r="C36" s="126" t="s">
@@ -5067,7 +4937,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="16" thickBot="1">
+    <row r="37" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="115"/>
       <c r="B37" s="116"/>
       <c r="C37" s="106" t="s">
@@ -5078,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="16" thickBot="1">
+    <row r="38" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="115"/>
       <c r="B38" s="116"/>
       <c r="C38" s="142" t="s">
@@ -5088,7 +4958,7 @@
         <v>442800</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="16" thickBot="1">
+    <row r="39" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="115"/>
       <c r="B39" s="116"/>
       <c r="C39" s="142" t="s">
@@ -5098,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="16" thickBot="1">
+    <row r="40" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="115"/>
       <c r="B40" s="116"/>
       <c r="C40" s="142" t="s">
@@ -5108,7 +4978,7 @@
         <v>2835000</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="16" thickBot="1">
+    <row r="41" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="115"/>
       <c r="B41" s="116"/>
       <c r="C41" s="142" t="s">
@@ -5118,7 +4988,7 @@
         <v>534600</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="16" thickBot="1">
+    <row r="42" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="115"/>
       <c r="B42" s="116"/>
       <c r="C42" s="142" t="s">
@@ -5131,11 +5001,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5150,22 +5015,22 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="60" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="60" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="60" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="60" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="65" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="65" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="60" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="60"/>
+    <col min="1" max="1" width="3.42578125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="60" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="60" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="65" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="65" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="60" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="61"/>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -5176,7 +5041,7 @@
       <c r="I2" s="66"/>
       <c r="J2" s="62"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="63"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5189,7 +5054,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="59"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="63"/>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
@@ -5200,7 +5065,7 @@
       <c r="I4" s="67"/>
       <c r="J4" s="59"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="68"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -5227,7 +5092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="63"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5238,7 +5103,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="63"/>
       <c r="C7" s="135" t="s">
         <v>67</v>
@@ -5265,7 +5130,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="63"/>
       <c r="C8" s="115" t="s">
         <v>66</v>
@@ -5278,7 +5143,7 @@
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="63"/>
       <c r="C9" s="150" t="s">
         <v>143</v>
@@ -5290,7 +5155,7 @@
       <c r="H9" s="105"/>
       <c r="I9" s="59"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="63"/>
       <c r="C10" s="69"/>
       <c r="D10" s="59"/>
@@ -5301,7 +5166,7 @@
       <c r="I10" s="103"/>
       <c r="J10" s="102"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="63"/>
       <c r="E11" s="110"/>
       <c r="F11" s="59"/>
@@ -5310,7 +5175,7 @@
       <c r="I11" s="120"/>
       <c r="J11" s="101"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="63"/>
       <c r="C12" s="135" t="s">
         <v>110</v>
@@ -5337,25 +5202,25 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="63"/>
       <c r="C13" s="115" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="63"/>
       <c r="C14" s="115" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="63"/>
       <c r="C15" s="135" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="63"/>
       <c r="C16" s="136" t="s">
         <v>77</v>
@@ -5368,7 +5233,7 @@
       <c r="I16" s="59"/>
       <c r="J16" s="59"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="63"/>
       <c r="C17" s="135" t="s">
         <v>125</v>
@@ -5381,7 +5246,7 @@
       <c r="I17" s="103"/>
       <c r="J17" s="59"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="63"/>
       <c r="C18" s="150" t="s">
         <v>151</v>
@@ -5394,25 +5259,20 @@
       <c r="I18" s="59"/>
       <c r="J18" s="59"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C19" s="135" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C20" s="150" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5427,23 +5287,23 @@
       <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="70" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="70" customWidth="1"/>
     <col min="4" max="4" width="4" style="70" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="70" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="70" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="70"/>
-    <col min="14" max="14" width="16.375" style="70" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="70"/>
-    <col min="16" max="16" width="55.125" style="70" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="70"/>
+    <col min="5" max="5" width="13.140625" style="70" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="70" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="70"/>
+    <col min="14" max="14" width="16.42578125" style="70" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="70"/>
+    <col min="16" max="16" width="55.140625" style="70" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1"/>
-    <row r="2" spans="1:15">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="71"/>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -5458,7 +5318,7 @@
       <c r="M2" s="72"/>
       <c r="N2" s="73"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="74"/>
       <c r="B3" s="99"/>
       <c r="C3" s="78" t="s">
@@ -5480,7 +5340,7 @@
       <c r="M3" s="75"/>
       <c r="N3" s="100"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="76"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -5496,7 +5356,7 @@
       <c r="N4" s="77"/>
       <c r="O4" s="77"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="76"/>
       <c r="D5" s="77"/>
       <c r="E5" s="77"/>
@@ -5511,7 +5371,7 @@
       <c r="N5" s="77"/>
       <c r="O5" s="77"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="76"/>
       <c r="C6" s="77" t="s">
         <v>69</v>
@@ -5527,7 +5387,7 @@
       <c r="N6" s="77"/>
       <c r="O6" s="77"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="76"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
@@ -5543,7 +5403,7 @@
       <c r="N7" s="77"/>
       <c r="O7" s="77"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="76"/>
       <c r="C8" s="77" t="s">
         <v>71</v>
@@ -5561,7 +5421,7 @@
       <c r="N8" s="77"/>
       <c r="O8" s="77"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="76"/>
       <c r="C9" s="77"/>
       <c r="D9" s="77"/>
@@ -5577,7 +5437,7 @@
       <c r="N9" s="77"/>
       <c r="O9" s="77"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
       <c r="D10" s="77"/>
@@ -5593,7 +5453,7 @@
       <c r="N10" s="77"/>
       <c r="O10" s="77"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="76"/>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
@@ -5609,7 +5469,7 @@
       <c r="N11" s="77"/>
       <c r="O11" s="77"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="76"/>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -5625,7 +5485,7 @@
       <c r="N12" s="77"/>
       <c r="O12" s="77"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="76"/>
       <c r="C13" s="77"/>
       <c r="D13" s="77"/>
@@ -5641,7 +5501,7 @@
       <c r="N13" s="77"/>
       <c r="O13" s="77"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
       <c r="D14" s="77"/>
@@ -5657,7 +5517,7 @@
       <c r="N14" s="77"/>
       <c r="O14" s="77"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
       <c r="D15" s="77"/>
@@ -5673,7 +5533,7 @@
       <c r="N15" s="77"/>
       <c r="O15" s="77"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="76"/>
       <c r="C16" s="77"/>
       <c r="D16" s="77"/>
@@ -5689,7 +5549,7 @@
       <c r="N16" s="77"/>
       <c r="O16" s="77"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="76"/>
       <c r="C17" s="77"/>
       <c r="D17" s="77"/>
@@ -5701,7 +5561,7 @@
       <c r="N17" s="77"/>
       <c r="O17" s="77"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="76"/>
       <c r="C18" s="77"/>
       <c r="D18" s="77"/>
@@ -5713,7 +5573,7 @@
       <c r="N18" s="77"/>
       <c r="O18" s="77"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="76"/>
       <c r="C19" s="77"/>
       <c r="D19" s="77"/>
@@ -5729,7 +5589,7 @@
       <c r="N19" s="77"/>
       <c r="O19" s="77"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="76"/>
       <c r="C20" s="77"/>
       <c r="D20" s="77"/>
@@ -5745,7 +5605,7 @@
       <c r="N20" s="77"/>
       <c r="O20" s="77"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="76"/>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
@@ -5761,7 +5621,7 @@
       <c r="N21" s="77"/>
       <c r="O21" s="77"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="76"/>
       <c r="C22" s="77"/>
       <c r="D22" s="77"/>
@@ -5777,7 +5637,7 @@
       <c r="N22" s="77"/>
       <c r="O22" s="77"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="76"/>
       <c r="C23" s="77"/>
       <c r="D23" s="77"/>
@@ -5793,7 +5653,7 @@
       <c r="N23" s="77"/>
       <c r="O23" s="77"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="76"/>
       <c r="C24" s="77"/>
       <c r="D24" s="77"/>
@@ -5809,7 +5669,7 @@
       <c r="N24" s="77"/>
       <c r="O24" s="77"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="76"/>
       <c r="C25" s="77"/>
       <c r="D25" s="77"/>
@@ -5825,7 +5685,7 @@
       <c r="N25" s="77"/>
       <c r="O25" s="77"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="76"/>
       <c r="C26" s="77"/>
       <c r="D26" s="77"/>
@@ -5841,7 +5701,7 @@
       <c r="N26" s="77"/>
       <c r="O26" s="77"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="76"/>
       <c r="C27" s="77"/>
       <c r="D27" s="77"/>
@@ -5863,7 +5723,7 @@
       <c r="N27" s="77"/>
       <c r="O27" s="77"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="76"/>
       <c r="C28" s="77"/>
       <c r="D28" s="77"/>
@@ -5885,7 +5745,7 @@
       <c r="N28" s="77"/>
       <c r="O28" s="77"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="76"/>
       <c r="C29" s="77">
         <v>34000</v>
@@ -5911,7 +5771,7 @@
       <c r="N29" s="77"/>
       <c r="O29" s="77"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="76"/>
       <c r="C30" s="77">
         <f>C29/E29*170607</f>
@@ -5930,7 +5790,7 @@
       <c r="N30" s="77"/>
       <c r="O30" s="77"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="76"/>
       <c r="C31" s="77">
         <v>113940</v>
@@ -5948,7 +5808,7 @@
       <c r="N31" s="77"/>
       <c r="O31" s="77"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="76"/>
       <c r="C32" s="77">
         <f>C31/C30</f>
@@ -5972,7 +5832,7 @@
       <c r="N32" s="77"/>
       <c r="O32" s="77"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="76"/>
       <c r="C33" s="77"/>
       <c r="E33" s="77">
@@ -5992,7 +5852,7 @@
       <c r="N33" s="77"/>
       <c r="O33" s="77"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="76"/>
       <c r="E34" s="77">
         <f>E29/($E$28+$E$29+$E$27)</f>
@@ -6010,7 +5870,7 @@
       <c r="N34" s="77"/>
       <c r="O34" s="77"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="76"/>
       <c r="C35" s="77"/>
       <c r="D35" s="77"/>
@@ -6026,7 +5886,7 @@
       <c r="N35" s="77"/>
       <c r="O35" s="77"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="76"/>
       <c r="C36" s="77"/>
       <c r="D36" s="77"/>
@@ -6039,7 +5899,7 @@
       <c r="N36" s="77"/>
       <c r="O36" s="77"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="76"/>
       <c r="C37" s="77"/>
       <c r="D37" s="77"/>
@@ -6055,7 +5915,7 @@
       <c r="N37" s="77"/>
       <c r="O37" s="77"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="76"/>
       <c r="C38" s="77"/>
       <c r="D38" s="77"/>
@@ -6069,7 +5929,7 @@
       <c r="N38" s="77"/>
       <c r="O38" s="77"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="76"/>
       <c r="C39" s="77"/>
       <c r="D39" s="77"/>
@@ -6085,7 +5945,7 @@
       <c r="N39" s="77"/>
       <c r="O39" s="77"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="76"/>
       <c r="C40" s="77"/>
       <c r="D40" s="77"/>
@@ -6101,7 +5961,7 @@
       <c r="N40" s="77"/>
       <c r="O40" s="77"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="76"/>
       <c r="C41" s="77"/>
       <c r="D41" s="77"/>
@@ -6117,7 +5977,7 @@
       <c r="N41" s="77"/>
       <c r="O41" s="77"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="76"/>
       <c r="C42" s="77"/>
       <c r="K42" s="77"/>
@@ -6126,7 +5986,7 @@
       <c r="N42" s="77"/>
       <c r="O42" s="77"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="76"/>
       <c r="C43" s="77"/>
       <c r="K43" s="77"/>
@@ -6135,7 +5995,7 @@
       <c r="N43" s="77"/>
       <c r="O43" s="77"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="76"/>
       <c r="C44" s="77"/>
       <c r="K44" s="77"/>
@@ -6144,7 +6004,7 @@
       <c r="N44" s="77"/>
       <c r="O44" s="77"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="76"/>
       <c r="C45" s="77"/>
       <c r="K45" s="77"/>
@@ -6153,7 +6013,7 @@
       <c r="N45" s="77"/>
       <c r="O45" s="77"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="76"/>
       <c r="C46" s="77"/>
       <c r="E46" s="104"/>
@@ -6164,7 +6024,7 @@
       <c r="N46" s="77"/>
       <c r="O46" s="77"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="76"/>
       <c r="C47" s="77"/>
       <c r="E47" s="77"/>
@@ -6175,7 +6035,7 @@
       <c r="N47" s="77"/>
       <c r="O47" s="77"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="76"/>
       <c r="C48" s="70" t="s">
         <v>68</v>
@@ -6186,7 +6046,7 @@
       <c r="N48" s="77"/>
       <c r="O48" s="77"/>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="76"/>
       <c r="C49" s="70" t="s">
         <v>120</v>
@@ -6197,7 +6057,7 @@
       <c r="N49" s="77"/>
       <c r="O49" s="77"/>
     </row>
-    <row r="50" spans="2:17" ht="17" thickBot="1">
+    <row r="50" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="76"/>
       <c r="C50" s="77" t="s">
         <v>121</v>
@@ -6209,7 +6069,7 @@
       <c r="N50" s="77"/>
       <c r="O50" s="77"/>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="76"/>
       <c r="C51" s="77" t="s">
         <v>146</v>
@@ -6224,7 +6084,7 @@
       <c r="P51" s="162"/>
       <c r="Q51" s="163"/>
     </row>
-    <row r="52" spans="2:17" ht="18">
+    <row r="52" spans="2:17" ht="19" x14ac:dyDescent="0.25">
       <c r="B52" s="76"/>
       <c r="C52" s="77"/>
       <c r="D52" s="77"/>
@@ -6249,7 +6109,7 @@
       </c>
       <c r="Q52" s="166"/>
     </row>
-    <row r="53" spans="2:17" ht="19" thickBot="1">
+    <row r="53" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="76"/>
       <c r="C53" s="70" t="s">
         <v>122</v>
@@ -6264,7 +6124,7 @@
       <c r="P53" s="168"/>
       <c r="Q53" s="169"/>
     </row>
-    <row r="54" spans="2:17" ht="19" thickBot="1">
+    <row r="54" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="76"/>
       <c r="C54" s="70" t="s">
         <v>148</v>
@@ -6300,7 +6160,7 @@
       </c>
       <c r="Q54" s="169"/>
     </row>
-    <row r="55" spans="2:17" ht="16" thickBot="1">
+    <row r="55" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="76"/>
       <c r="C55" s="70" t="s">
         <v>149</v>
@@ -6314,7 +6174,7 @@
       <c r="P55" s="174"/>
       <c r="Q55" s="175"/>
     </row>
-    <row r="56" spans="2:17">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="76"/>
       <c r="C56" s="70" t="s">
         <v>123</v>
@@ -6325,7 +6185,7 @@
       <c r="N56" s="77"/>
       <c r="O56" s="77"/>
     </row>
-    <row r="57" spans="2:17">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="76"/>
       <c r="D57" s="77"/>
       <c r="K57" s="77"/>
@@ -6334,7 +6194,7 @@
       <c r="N57" s="77"/>
       <c r="O57" s="77"/>
     </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="76"/>
       <c r="K58" s="77"/>
       <c r="L58" s="77"/>
@@ -6342,7 +6202,7 @@
       <c r="N58" s="77"/>
       <c r="O58" s="77"/>
     </row>
-    <row r="59" spans="2:17">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="76"/>
       <c r="K59" s="77"/>
       <c r="L59" s="77"/>
@@ -6350,7 +6210,7 @@
       <c r="N59" s="77"/>
       <c r="O59" s="77"/>
     </row>
-    <row r="60" spans="2:17">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="76"/>
       <c r="E60" s="70">
         <v>46.1</v>
@@ -6367,7 +6227,7 @@
       <c r="N60" s="77"/>
       <c r="O60" s="77"/>
     </row>
-    <row r="61" spans="2:17">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="76"/>
       <c r="E61" s="77">
         <v>0.46100000000000002</v>
@@ -6382,7 +6242,7 @@
       <c r="N61" s="77"/>
       <c r="O61" s="77"/>
     </row>
-    <row r="62" spans="2:17">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="76"/>
       <c r="F62" s="140"/>
       <c r="K62" s="77"/>
@@ -6391,7 +6251,7 @@
       <c r="N62" s="77"/>
       <c r="O62" s="77"/>
     </row>
-    <row r="63" spans="2:17">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="76"/>
       <c r="K63" s="77"/>
       <c r="L63" s="77"/>
@@ -6399,7 +6259,7 @@
       <c r="N63" s="77"/>
       <c r="O63" s="77"/>
     </row>
-    <row r="64" spans="2:17">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" s="76"/>
       <c r="K64" s="77"/>
       <c r="L64" s="77"/>
@@ -6407,7 +6267,7 @@
       <c r="N64" s="77"/>
       <c r="O64" s="77"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="76"/>
       <c r="E65" s="141">
         <v>90</v>
@@ -6424,7 +6284,7 @@
       <c r="N65" s="77"/>
       <c r="O65" s="77"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="76"/>
       <c r="E66" s="70">
         <f>E65/100</f>
@@ -6439,7 +6299,7 @@
       <c r="N66" s="77"/>
       <c r="O66" s="77"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="76"/>
       <c r="E67" s="70">
         <f>E66*8760</f>
@@ -6457,7 +6317,7 @@
       <c r="N67" s="77"/>
       <c r="O67" s="77"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="76"/>
       <c r="K68" s="77"/>
       <c r="L68" s="77"/>
@@ -6465,7 +6325,7 @@
       <c r="N68" s="77"/>
       <c r="O68" s="77"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="76"/>
       <c r="C69" s="77"/>
       <c r="E69" s="70">
@@ -6480,7 +6340,7 @@
       <c r="N69" s="77"/>
       <c r="O69" s="77"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="76"/>
       <c r="C70" s="77"/>
       <c r="E70" s="70">
@@ -6495,7 +6355,7 @@
       <c r="N70" s="77"/>
       <c r="O70" s="77"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="76"/>
       <c r="C71" s="77"/>
       <c r="E71" s="70">
@@ -6510,7 +6370,7 @@
       <c r="N71" s="77"/>
       <c r="O71" s="77"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="76"/>
       <c r="C72" s="77"/>
       <c r="E72" s="70">
@@ -6528,7 +6388,7 @@
       <c r="N72" s="77"/>
       <c r="O72" s="77"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="76"/>
       <c r="C73" s="77"/>
       <c r="E73" s="70">
@@ -6547,7 +6407,7 @@
       <c r="N73" s="77"/>
       <c r="O73" s="77"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="76"/>
       <c r="C74" s="77"/>
       <c r="K74" s="77"/>
@@ -6556,7 +6416,7 @@
       <c r="N74" s="77"/>
       <c r="O74" s="77"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="76"/>
       <c r="K75" s="77"/>
       <c r="L75" s="77"/>
@@ -6564,7 +6424,7 @@
       <c r="N75" s="77"/>
       <c r="O75" s="77"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="76"/>
       <c r="E76" s="70">
         <f>E71*E67</f>
@@ -6581,22 +6441,22 @@
       <c r="N76" s="77"/>
       <c r="O76" s="77"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="76"/>
       <c r="N77" s="77"/>
       <c r="O77" s="77"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="76"/>
       <c r="N78" s="77"/>
       <c r="O78" s="77"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="76"/>
       <c r="N79" s="77"/>
       <c r="O79" s="77"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="76"/>
       <c r="E80" s="70">
         <v>40</v>
@@ -6610,7 +6470,7 @@
       <c r="N80" s="77"/>
       <c r="O80" s="77"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="76"/>
       <c r="E81" s="70">
         <v>3</v>
@@ -6624,72 +6484,72 @@
       <c r="N81" s="77"/>
       <c r="O81" s="77"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="76"/>
       <c r="N82" s="77"/>
       <c r="O82" s="77"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="76"/>
       <c r="N83" s="77"/>
       <c r="O83" s="77"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="76"/>
       <c r="N84" s="77"/>
       <c r="O84" s="77"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="76"/>
       <c r="N85" s="77"/>
       <c r="O85" s="77"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="76"/>
       <c r="N86" s="77"/>
       <c r="O86" s="77"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="76"/>
       <c r="N87" s="77"/>
       <c r="O87" s="77"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="76"/>
       <c r="N88" s="77"/>
       <c r="O88" s="77"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="76"/>
       <c r="N89" s="77"/>
       <c r="O89" s="77"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="76"/>
       <c r="N90" s="77"/>
       <c r="O90" s="77"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="76"/>
       <c r="N91" s="77"/>
       <c r="O91" s="77"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="76"/>
       <c r="N92" s="77"/>
       <c r="O92" s="77"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="76"/>
       <c r="N93" s="77"/>
       <c r="O93" s="77"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="76"/>
       <c r="N94" s="77"/>
       <c r="O94" s="77"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="76"/>
       <c r="E95" s="70">
         <v>10</v>
@@ -6703,7 +6563,7 @@
       <c r="N95" s="77"/>
       <c r="O95" s="77"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="76"/>
       <c r="E96" s="70">
         <f>E95/100</f>
@@ -6715,157 +6575,157 @@
       <c r="N96" s="77"/>
       <c r="O96" s="77"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" s="76"/>
       <c r="N97" s="77"/>
       <c r="O97" s="77"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="76"/>
       <c r="N98" s="77"/>
       <c r="O98" s="77"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" s="76"/>
       <c r="N99" s="77"/>
       <c r="O99" s="77"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="76"/>
       <c r="N100" s="77"/>
       <c r="O100" s="77"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="76"/>
       <c r="N101" s="77"/>
       <c r="O101" s="77"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="76"/>
       <c r="N102" s="77"/>
       <c r="O102" s="77"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="76"/>
       <c r="N103" s="77"/>
       <c r="O103" s="77"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="76"/>
       <c r="N104" s="77"/>
       <c r="O104" s="77"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="76"/>
       <c r="N105" s="77"/>
       <c r="O105" s="77"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="76"/>
       <c r="N106" s="77"/>
       <c r="O106" s="77"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="76"/>
       <c r="N107" s="77"/>
       <c r="O107" s="77"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" s="76"/>
       <c r="N108" s="77"/>
       <c r="O108" s="77"/>
     </row>
-    <row r="109" spans="2:15">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" s="76"/>
       <c r="N109" s="77"/>
       <c r="O109" s="77"/>
     </row>
-    <row r="110" spans="2:15">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" s="76"/>
       <c r="N110" s="77"/>
       <c r="O110" s="77"/>
     </row>
-    <row r="111" spans="2:15">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="76"/>
       <c r="N111" s="77"/>
       <c r="O111" s="77"/>
     </row>
-    <row r="112" spans="2:15">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="76"/>
       <c r="N112" s="77"/>
       <c r="O112" s="77"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="76"/>
       <c r="N113" s="77"/>
       <c r="O113" s="77"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="76"/>
       <c r="N114" s="77"/>
       <c r="O114" s="77"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" s="76"/>
       <c r="N115" s="77"/>
       <c r="O115" s="77"/>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="76"/>
       <c r="N116" s="77"/>
       <c r="O116" s="77"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="76"/>
       <c r="N117" s="77"/>
       <c r="O117" s="77"/>
     </row>
-    <row r="118" spans="2:15">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="76"/>
       <c r="N118" s="77"/>
       <c r="O118" s="77"/>
     </row>
-    <row r="119" spans="2:15">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="76"/>
       <c r="N119" s="77"/>
       <c r="O119" s="77"/>
     </row>
-    <row r="120" spans="2:15">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="76"/>
       <c r="N120" s="77"/>
       <c r="O120" s="77"/>
     </row>
-    <row r="121" spans="2:15">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" s="76"/>
       <c r="N121" s="77"/>
       <c r="O121" s="77"/>
     </row>
-    <row r="122" spans="2:15">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" s="76"/>
       <c r="N122" s="77"/>
       <c r="O122" s="77"/>
     </row>
-    <row r="123" spans="2:15">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="76"/>
       <c r="N123" s="77"/>
       <c r="O123" s="77"/>
     </row>
-    <row r="124" spans="2:15">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" s="76"/>
     </row>
-    <row r="125" spans="2:15">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" s="76"/>
     </row>
-    <row r="126" spans="2:15">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" s="76"/>
     </row>
-    <row r="127" spans="2:15">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" s="76"/>
     </row>
-    <row r="128" spans="2:15">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" s="76"/>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="76"/>
       <c r="E129" s="70">
         <v>155521091</v>
@@ -6877,7 +6737,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="76"/>
       <c r="E130" s="70">
         <f>E129/E54</f>
@@ -6890,7 +6750,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="76"/>
       <c r="E131" s="70">
         <f>E130*E96</f>
@@ -6903,16 +6763,16 @@
         <v>169</v>
       </c>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="76"/>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="76"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="76"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="76"/>
       <c r="E135" s="70">
         <v>50</v>
@@ -6924,7 +6784,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="76"/>
       <c r="E136" s="70">
         <f>E135*0.00404686</f>
@@ -6937,19 +6797,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="76"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="76"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="76"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="76"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="76"/>
       <c r="E141" s="70">
         <v>158118579</v>
@@ -6961,7 +6821,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="76"/>
       <c r="E142" s="70">
         <f>E141/E54</f>
@@ -6974,43 +6834,43 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="76"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="76"/>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" s="76"/>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" s="76"/>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" s="76"/>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148" s="76"/>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" s="76"/>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" s="76"/>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" s="76"/>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" s="76"/>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" s="76"/>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" s="76"/>
     </row>
-    <row r="163" spans="5:7">
+    <row r="163" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E163" s="70">
         <v>10449181</v>
       </c>
@@ -7021,7 +6881,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="164" spans="5:7">
+    <row r="164" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E164" s="70">
         <f>E163/E54</f>
         <v>9516558.2877959926</v>
@@ -7033,16 +6893,16 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="11:11">
+    <row r="189" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K189" s="77"/>
     </row>
-    <row r="190" spans="11:11">
+    <row r="190" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K190" s="77"/>
     </row>
-    <row r="191" spans="11:11">
+    <row r="191" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K191" s="77"/>
     </row>
-    <row r="214" spans="5:7">
+    <row r="214" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E214" s="70">
         <f>138000+7430000+1274000+775000</f>
         <v>9617000</v>
@@ -7054,7 +6914,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="215" spans="5:7">
+    <row r="215" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E215" s="70">
         <f>E214/E54</f>
         <v>8758652.0947176684</v>
@@ -7066,12 +6926,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="216" spans="5:7">
+    <row r="216" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G216" s="70" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="218" spans="5:7">
+    <row r="218" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E218" s="70">
         <f>E215/E76</f>
         <v>1.4301001459934731E-3</v>
@@ -7083,7 +6943,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="219" spans="5:7">
+    <row r="219" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E219" s="70">
         <f>E215/E67</f>
         <v>1110.9401439266449</v>
@@ -7099,10 +6959,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>